--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0839F8-B1DA-4CF8-B486-03EE01629465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07543798-6893-4D21-B798-100B1A67B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22215" yWindow="4455" windowWidth="20940" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,6 +494,8 @@
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -545,10 +547,10 @@
         <v>23</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H2">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="I2">
         <v>100</v>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07543798-6893-4D21-B798-100B1A67B2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83B827-639A-4318-983C-B1872A2250E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,43 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>100,</t>
-  </si>
-  <si>
-    <t>11,0</t>
-  </si>
-  <si>
-    <t>200,1</t>
-  </si>
-  <si>
-    <t>11,0,7</t>
-  </si>
-  <si>
-    <t>400,2,0.5</t>
-  </si>
-  <si>
-    <t>11,0,7,9</t>
-  </si>
-  <si>
-    <t>700,4,1.0,0.5</t>
-  </si>
-  <si>
-    <t>11,0,7,9,2</t>
-  </si>
-  <si>
-    <t>1100,7,2.0,1,2</t>
-  </si>
-  <si>
-    <t>11,0,7,9,2,4</t>
-  </si>
-  <si>
-    <t>1600,11,3.5,2,4,3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +81,14 @@
   </si>
   <si>
     <t>yomul1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,31 +472,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -532,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -541,7 +513,7 @@
         <v>50000000</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>23</v>
@@ -561,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -580,6 +552,35 @@
       </c>
       <c r="I3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1000000000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>10000</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -591,60 +592,9019 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D164B1F-A6F1-469A-B244-E34891C6EBA2}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="97.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1">
+        <f>A1*50000</f>
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <f>SUM(B1:B1000)</f>
+        <v>25025000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <f t="shared" ref="B2:B65" si="0">A2*50000</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2350000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>2450000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2600000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>2850000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>2950000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>3050000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B129" si="1">A66*50000</f>
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>3350000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="1"/>
+        <v>3450000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="1"/>
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>3550000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>3650000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="1"/>
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="1"/>
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="1"/>
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="1"/>
+        <v>3900000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="1"/>
+        <v>3950000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="1"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="1"/>
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="1"/>
+        <v>4100000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="1"/>
+        <v>4150000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="1"/>
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="1"/>
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="1"/>
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="1"/>
+        <v>4350000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="1"/>
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="1"/>
+        <v>4450000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="1"/>
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="1"/>
+        <v>4550000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="1"/>
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>4650000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>4750000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>4850000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>4950000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>5050000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>5100000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>5150000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>5300000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>5350000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>5450000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>5550000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>5650000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>5750000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>5850000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>5900000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>5950000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>6050000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>6150000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>6200000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>6250000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>6350000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>6450000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130:B193" si="2">A130*50000</f>
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="2"/>
+        <v>6550000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="2"/>
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="2"/>
+        <v>6650000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="2"/>
+        <v>6700000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="2"/>
+        <v>6750000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="2"/>
+        <v>6800000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="2"/>
+        <v>6850000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>6900000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>6950000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>7050000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>7100000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>7150000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>7250000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>7300000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>7350000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>7400000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>7450000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>7550000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="2"/>
+        <v>7600000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="2"/>
+        <v>7650000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="2"/>
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="2"/>
+        <v>7750000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="2"/>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="2"/>
+        <v>7850000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="2"/>
+        <v>7900000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="2"/>
+        <v>7950000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="2"/>
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="2"/>
+        <v>8050000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="2"/>
+        <v>8100000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="2"/>
+        <v>8150000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>8200000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="2"/>
+        <v>8250000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="2"/>
+        <v>8300000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="2"/>
+        <v>8350000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="2"/>
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="2"/>
+        <v>8450000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="2"/>
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="2"/>
+        <v>8550000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="2"/>
+        <v>8600000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="2"/>
+        <v>8650000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="2"/>
+        <v>8700000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="2"/>
+        <v>8750000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="2"/>
+        <v>8800000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="2"/>
+        <v>8850000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="2"/>
+        <v>8900000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="2"/>
+        <v>8950000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="2"/>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="2"/>
+        <v>9050000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="2"/>
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="2"/>
+        <v>9150000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="2"/>
+        <v>9200000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="2"/>
+        <v>9250000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="2"/>
+        <v>9300000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="2"/>
+        <v>9350000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="2"/>
+        <v>9400000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="2"/>
+        <v>9450000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="2"/>
+        <v>9500000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="2"/>
+        <v>9550000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="2"/>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="2"/>
+        <v>9650000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ref="B194:B257" si="3">A194*50000</f>
+        <v>9700000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="3"/>
+        <v>9750000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="3"/>
+        <v>9800000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="3"/>
+        <v>9850000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="3"/>
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="3"/>
+        <v>9950000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="3"/>
+        <v>10050000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="3"/>
+        <v>10100000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="3"/>
+        <v>10150000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="3"/>
+        <v>10200000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="3"/>
+        <v>10250000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="3"/>
+        <v>10300000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="3"/>
+        <v>10350000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="3"/>
+        <v>10400000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="3"/>
+        <v>10450000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="3"/>
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="3"/>
+        <v>10550000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="3"/>
+        <v>10600000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="3"/>
+        <v>10650000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="3"/>
+        <v>10700000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="3"/>
+        <v>10750000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="3"/>
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="3"/>
+        <v>10850000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="3"/>
+        <v>10900000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="3"/>
+        <v>10950000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="3"/>
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="3"/>
+        <v>11050000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="3"/>
+        <v>11100000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="3"/>
+        <v>11150000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="3"/>
+        <v>11200000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="3"/>
+        <v>11250000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="3"/>
+        <v>11300000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="3"/>
+        <v>11350000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="3"/>
+        <v>11400000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="3"/>
+        <v>11450000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="3"/>
+        <v>11500000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="3"/>
+        <v>11550000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="3"/>
+        <v>11600000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="3"/>
+        <v>11650000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="3"/>
+        <v>11700000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="3"/>
+        <v>11750000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="3"/>
+        <v>11800000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="3"/>
+        <v>11850000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="3"/>
+        <v>11900000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="3"/>
+        <v>11950000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="3"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="3"/>
+        <v>12050000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="3"/>
+        <v>12100000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="3"/>
+        <v>12150000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="3"/>
+        <v>12200000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="3"/>
+        <v>12250000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="3"/>
+        <v>12300000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="3"/>
+        <v>12350000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="3"/>
+        <v>12400000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="3"/>
+        <v>12450000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="3"/>
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="3"/>
+        <v>12550000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="3"/>
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="3"/>
+        <v>12650000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="3"/>
+        <v>12700000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="3"/>
+        <v>12750000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="3"/>
+        <v>12800000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="3"/>
+        <v>12850000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <f t="shared" ref="B258:B321" si="4">A258*50000</f>
+        <v>12900000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="4"/>
+        <v>12950000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="4"/>
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="4"/>
+        <v>13050000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="4"/>
+        <v>13100000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="4"/>
+        <v>13150000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="4"/>
+        <v>13200000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="4"/>
+        <v>13250000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="4"/>
+        <v>13300000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="4"/>
+        <v>13350000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="4"/>
+        <v>13400000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="4"/>
+        <v>13450000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="4"/>
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="4"/>
+        <v>13550000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="4"/>
+        <v>13600000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="4"/>
+        <v>13650000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="4"/>
+        <v>13700000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="4"/>
+        <v>13750000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="4"/>
+        <v>13800000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="4"/>
+        <v>13850000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="4"/>
+        <v>13900000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="4"/>
+        <v>13950000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="4"/>
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="4"/>
+        <v>14050000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="4"/>
+        <v>14100000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="4"/>
+        <v>14150000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="4"/>
+        <v>14200000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="4"/>
+        <v>14250000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="4"/>
+        <v>14300000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="4"/>
+        <v>14350000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="4"/>
+        <v>14400000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="4"/>
+        <v>14450000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="4"/>
+        <v>14500000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="4"/>
+        <v>14550000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="4"/>
+        <v>14600000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="4"/>
+        <v>14650000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="4"/>
+        <v>14700000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="4"/>
+        <v>14750000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="4"/>
+        <v>14800000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="4"/>
+        <v>14850000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="4"/>
+        <v>14900000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="4"/>
+        <v>14950000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="4"/>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="4"/>
+        <v>15050000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="4"/>
+        <v>15100000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="4"/>
+        <v>15150000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="4"/>
+        <v>15200000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="4"/>
+        <v>15250000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="4"/>
+        <v>15300000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="4"/>
+        <v>15350000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="4"/>
+        <v>15400000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="4"/>
+        <v>15450000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="4"/>
+        <v>15500000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="4"/>
+        <v>15550000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="4"/>
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="4"/>
+        <v>15650000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="4"/>
+        <v>15700000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="4"/>
+        <v>15750000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="4"/>
+        <v>15800000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="4"/>
+        <v>15850000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="4"/>
+        <v>15900000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="4"/>
+        <v>15950000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="4"/>
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="4"/>
+        <v>16050000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <f t="shared" ref="B322:B385" si="5">A322*50000</f>
+        <v>16100000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="5"/>
+        <v>16150000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="5"/>
+        <v>16200000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="5"/>
+        <v>16250000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="5"/>
+        <v>16300000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="5"/>
+        <v>16350000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="5"/>
+        <v>16400000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="5"/>
+        <v>16450000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="5"/>
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="5"/>
+        <v>16550000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="5"/>
+        <v>16600000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="5"/>
+        <v>16650000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="5"/>
+        <v>16700000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="5"/>
+        <v>16750000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="5"/>
+        <v>16800000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="5"/>
+        <v>16850000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="5"/>
+        <v>16900000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="5"/>
+        <v>16950000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="5"/>
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="5"/>
+        <v>17050000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="5"/>
+        <v>17100000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="5"/>
+        <v>17150000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="5"/>
+        <v>17200000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="5"/>
+        <v>17250000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="5"/>
+        <v>17300000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="5"/>
+        <v>17350000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="5"/>
+        <v>17400000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="5"/>
+        <v>17450000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="5"/>
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="5"/>
+        <v>17550000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="5"/>
+        <v>17600000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="5"/>
+        <v>17650000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="5"/>
+        <v>17700000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="5"/>
+        <v>17750000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="5"/>
+        <v>17800000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="5"/>
+        <v>17850000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="5"/>
+        <v>17900000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="5"/>
+        <v>17950000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="5"/>
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="5"/>
+        <v>18050000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="5"/>
+        <v>18100000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="5"/>
+        <v>18150000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="5"/>
+        <v>18200000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="5"/>
+        <v>18250000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <f t="shared" si="5"/>
+        <v>18300000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="5"/>
+        <v>18350000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="5"/>
+        <v>18400000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <f t="shared" si="5"/>
+        <v>18450000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <f t="shared" si="5"/>
+        <v>18500000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <f t="shared" si="5"/>
+        <v>18550000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <f t="shared" si="5"/>
+        <v>18600000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <f t="shared" si="5"/>
+        <v>18650000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <f t="shared" si="5"/>
+        <v>18700000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <f t="shared" si="5"/>
+        <v>18750000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <f t="shared" si="5"/>
+        <v>18800000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <f t="shared" si="5"/>
+        <v>18850000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <f t="shared" si="5"/>
+        <v>18900000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <f t="shared" si="5"/>
+        <v>18950000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <f t="shared" si="5"/>
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <f t="shared" si="5"/>
+        <v>19050000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <f t="shared" si="5"/>
+        <v>19100000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <f t="shared" si="5"/>
+        <v>19150000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <f t="shared" si="5"/>
+        <v>19200000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <f t="shared" si="5"/>
+        <v>19250000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <f t="shared" ref="B386:B449" si="6">A386*50000</f>
+        <v>19300000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <f t="shared" si="6"/>
+        <v>19350000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <f t="shared" si="6"/>
+        <v>19400000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <f t="shared" si="6"/>
+        <v>19450000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <f t="shared" si="6"/>
+        <v>19500000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <f t="shared" si="6"/>
+        <v>19550000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <f t="shared" si="6"/>
+        <v>19600000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <f t="shared" si="6"/>
+        <v>19650000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <f t="shared" si="6"/>
+        <v>19700000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <f t="shared" si="6"/>
+        <v>19750000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <f t="shared" si="6"/>
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <f t="shared" si="6"/>
+        <v>19850000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <f t="shared" si="6"/>
+        <v>19900000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <f t="shared" si="6"/>
+        <v>19950000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <f t="shared" si="6"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <f t="shared" si="6"/>
+        <v>20050000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <f t="shared" si="6"/>
+        <v>20100000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <f t="shared" si="6"/>
+        <v>20150000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <f t="shared" si="6"/>
+        <v>20200000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <f t="shared" si="6"/>
+        <v>20250000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <f t="shared" si="6"/>
+        <v>20300000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <f t="shared" si="6"/>
+        <v>20350000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <f t="shared" si="6"/>
+        <v>20400000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <f t="shared" si="6"/>
+        <v>20450000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <f t="shared" si="6"/>
+        <v>20500000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <f t="shared" si="6"/>
+        <v>20550000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <f t="shared" si="6"/>
+        <v>20600000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <f t="shared" si="6"/>
+        <v>20650000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <f t="shared" si="6"/>
+        <v>20700000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <f t="shared" si="6"/>
+        <v>20750000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <f t="shared" si="6"/>
+        <v>20800000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <f t="shared" si="6"/>
+        <v>20850000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <f t="shared" si="6"/>
+        <v>20900000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <f t="shared" si="6"/>
+        <v>20950000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <f t="shared" si="6"/>
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <f t="shared" si="6"/>
+        <v>21050000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <f t="shared" si="6"/>
+        <v>21100000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <f t="shared" si="6"/>
+        <v>21150000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <f t="shared" si="6"/>
+        <v>21200000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <f t="shared" si="6"/>
+        <v>21250000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <f t="shared" si="6"/>
+        <v>21300000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <f t="shared" si="6"/>
+        <v>21350000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <f t="shared" si="6"/>
+        <v>21400000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <f t="shared" si="6"/>
+        <v>21450000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <f t="shared" si="6"/>
+        <v>21500000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <f t="shared" si="6"/>
+        <v>21550000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <f t="shared" si="6"/>
+        <v>21600000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <f t="shared" si="6"/>
+        <v>21650000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <f t="shared" si="6"/>
+        <v>21700000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <f t="shared" si="6"/>
+        <v>21750000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <f t="shared" si="6"/>
+        <v>21800000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <f t="shared" si="6"/>
+        <v>21850000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <f t="shared" si="6"/>
+        <v>21900000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <f t="shared" si="6"/>
+        <v>21950000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <f t="shared" si="6"/>
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <f t="shared" si="6"/>
+        <v>22050000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <f t="shared" si="6"/>
+        <v>22100000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <f t="shared" si="6"/>
+        <v>22150000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <f t="shared" si="6"/>
+        <v>22200000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <f t="shared" si="6"/>
+        <v>22250000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <f t="shared" si="6"/>
+        <v>22300000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <f t="shared" si="6"/>
+        <v>22350000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <f t="shared" si="6"/>
+        <v>22400000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <f t="shared" si="6"/>
+        <v>22450000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <f t="shared" ref="B450:B513" si="7">A450*50000</f>
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <f t="shared" si="7"/>
+        <v>22550000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <f t="shared" si="7"/>
+        <v>22600000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <f t="shared" si="7"/>
+        <v>22650000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <f t="shared" si="7"/>
+        <v>22700000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <f t="shared" si="7"/>
+        <v>22750000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <f t="shared" si="7"/>
+        <v>22800000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <f t="shared" si="7"/>
+        <v>22850000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <f t="shared" si="7"/>
+        <v>22900000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <f t="shared" si="7"/>
+        <v>22950000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <f t="shared" si="7"/>
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <f t="shared" si="7"/>
+        <v>23050000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <f t="shared" si="7"/>
+        <v>23100000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <f t="shared" si="7"/>
+        <v>23150000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <f t="shared" si="7"/>
+        <v>23200000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <f t="shared" si="7"/>
+        <v>23250000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <f t="shared" si="7"/>
+        <v>23300000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <f t="shared" si="7"/>
+        <v>23350000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <f t="shared" si="7"/>
+        <v>23400000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <f t="shared" si="7"/>
+        <v>23450000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <f t="shared" si="7"/>
+        <v>23500000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <f t="shared" si="7"/>
+        <v>23550000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <f t="shared" si="7"/>
+        <v>23600000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <f t="shared" si="7"/>
+        <v>23650000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <f t="shared" si="7"/>
+        <v>23700000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <f t="shared" si="7"/>
+        <v>23750000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>476</v>
+      </c>
+      <c r="B476">
+        <f t="shared" si="7"/>
+        <v>23800000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>477</v>
+      </c>
+      <c r="B477">
+        <f t="shared" si="7"/>
+        <v>23850000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>478</v>
+      </c>
+      <c r="B478">
+        <f t="shared" si="7"/>
+        <v>23900000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>479</v>
+      </c>
+      <c r="B479">
+        <f t="shared" si="7"/>
+        <v>23950000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>480</v>
+      </c>
+      <c r="B480">
+        <f t="shared" si="7"/>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>481</v>
+      </c>
+      <c r="B481">
+        <f t="shared" si="7"/>
+        <v>24050000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>482</v>
+      </c>
+      <c r="B482">
+        <f t="shared" si="7"/>
+        <v>24100000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>483</v>
+      </c>
+      <c r="B483">
+        <f t="shared" si="7"/>
+        <v>24150000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>484</v>
+      </c>
+      <c r="B484">
+        <f t="shared" si="7"/>
+        <v>24200000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>485</v>
+      </c>
+      <c r="B485">
+        <f t="shared" si="7"/>
+        <v>24250000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>486</v>
+      </c>
+      <c r="B486">
+        <f t="shared" si="7"/>
+        <v>24300000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>487</v>
+      </c>
+      <c r="B487">
+        <f t="shared" si="7"/>
+        <v>24350000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>488</v>
+      </c>
+      <c r="B488">
+        <f t="shared" si="7"/>
+        <v>24400000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>489</v>
+      </c>
+      <c r="B489">
+        <f t="shared" si="7"/>
+        <v>24450000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>490</v>
+      </c>
+      <c r="B490">
+        <f t="shared" si="7"/>
+        <v>24500000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>491</v>
+      </c>
+      <c r="B491">
+        <f t="shared" si="7"/>
+        <v>24550000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>492</v>
+      </c>
+      <c r="B492">
+        <f t="shared" si="7"/>
+        <v>24600000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>493</v>
+      </c>
+      <c r="B493">
+        <f t="shared" si="7"/>
+        <v>24650000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>494</v>
+      </c>
+      <c r="B494">
+        <f t="shared" si="7"/>
+        <v>24700000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>495</v>
+      </c>
+      <c r="B495">
+        <f t="shared" si="7"/>
+        <v>24750000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>496</v>
+      </c>
+      <c r="B496">
+        <f t="shared" si="7"/>
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>497</v>
+      </c>
+      <c r="B497">
+        <f t="shared" si="7"/>
+        <v>24850000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>498</v>
+      </c>
+      <c r="B498">
+        <f t="shared" si="7"/>
+        <v>24900000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>499</v>
+      </c>
+      <c r="B499">
+        <f t="shared" si="7"/>
+        <v>24950000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>500</v>
+      </c>
+      <c r="B500">
+        <f t="shared" si="7"/>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>501</v>
+      </c>
+      <c r="B501">
+        <f t="shared" si="7"/>
+        <v>25050000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>502</v>
+      </c>
+      <c r="B502">
+        <f t="shared" si="7"/>
+        <v>25100000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>503</v>
+      </c>
+      <c r="B503">
+        <f t="shared" si="7"/>
+        <v>25150000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>504</v>
+      </c>
+      <c r="B504">
+        <f t="shared" si="7"/>
+        <v>25200000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>505</v>
+      </c>
+      <c r="B505">
+        <f t="shared" si="7"/>
+        <v>25250000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>506</v>
+      </c>
+      <c r="B506">
+        <f t="shared" si="7"/>
+        <v>25300000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>507</v>
+      </c>
+      <c r="B507">
+        <f t="shared" si="7"/>
+        <v>25350000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>508</v>
+      </c>
+      <c r="B508">
+        <f t="shared" si="7"/>
+        <v>25400000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>509</v>
+      </c>
+      <c r="B509">
+        <f t="shared" si="7"/>
+        <v>25450000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>510</v>
+      </c>
+      <c r="B510">
+        <f t="shared" si="7"/>
+        <v>25500000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>511</v>
+      </c>
+      <c r="B511">
+        <f t="shared" si="7"/>
+        <v>25550000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>512</v>
+      </c>
+      <c r="B512">
+        <f t="shared" si="7"/>
+        <v>25600000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>513</v>
+      </c>
+      <c r="B513">
+        <f t="shared" si="7"/>
+        <v>25650000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>514</v>
+      </c>
+      <c r="B514">
+        <f t="shared" ref="B514:B577" si="8">A514*50000</f>
+        <v>25700000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>515</v>
+      </c>
+      <c r="B515">
+        <f t="shared" si="8"/>
+        <v>25750000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>516</v>
+      </c>
+      <c r="B516">
+        <f t="shared" si="8"/>
+        <v>25800000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>517</v>
+      </c>
+      <c r="B517">
+        <f t="shared" si="8"/>
+        <v>25850000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>518</v>
+      </c>
+      <c r="B518">
+        <f t="shared" si="8"/>
+        <v>25900000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>519</v>
+      </c>
+      <c r="B519">
+        <f t="shared" si="8"/>
+        <v>25950000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>520</v>
+      </c>
+      <c r="B520">
+        <f t="shared" si="8"/>
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>521</v>
+      </c>
+      <c r="B521">
+        <f t="shared" si="8"/>
+        <v>26050000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>522</v>
+      </c>
+      <c r="B522">
+        <f t="shared" si="8"/>
+        <v>26100000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>523</v>
+      </c>
+      <c r="B523">
+        <f t="shared" si="8"/>
+        <v>26150000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>524</v>
+      </c>
+      <c r="B524">
+        <f t="shared" si="8"/>
+        <v>26200000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>525</v>
+      </c>
+      <c r="B525">
+        <f t="shared" si="8"/>
+        <v>26250000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>526</v>
+      </c>
+      <c r="B526">
+        <f t="shared" si="8"/>
+        <v>26300000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>527</v>
+      </c>
+      <c r="B527">
+        <f t="shared" si="8"/>
+        <v>26350000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>528</v>
+      </c>
+      <c r="B528">
+        <f t="shared" si="8"/>
+        <v>26400000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>529</v>
+      </c>
+      <c r="B529">
+        <f t="shared" si="8"/>
+        <v>26450000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>530</v>
+      </c>
+      <c r="B530">
+        <f t="shared" si="8"/>
+        <v>26500000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>531</v>
+      </c>
+      <c r="B531">
+        <f t="shared" si="8"/>
+        <v>26550000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>532</v>
+      </c>
+      <c r="B532">
+        <f t="shared" si="8"/>
+        <v>26600000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>533</v>
+      </c>
+      <c r="B533">
+        <f t="shared" si="8"/>
+        <v>26650000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>534</v>
+      </c>
+      <c r="B534">
+        <f t="shared" si="8"/>
+        <v>26700000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>535</v>
+      </c>
+      <c r="B535">
+        <f t="shared" si="8"/>
+        <v>26750000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>536</v>
+      </c>
+      <c r="B536">
+        <f t="shared" si="8"/>
+        <v>26800000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>537</v>
+      </c>
+      <c r="B537">
+        <f t="shared" si="8"/>
+        <v>26850000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>538</v>
+      </c>
+      <c r="B538">
+        <f t="shared" si="8"/>
+        <v>26900000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>539</v>
+      </c>
+      <c r="B539">
+        <f t="shared" si="8"/>
+        <v>26950000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>540</v>
+      </c>
+      <c r="B540">
+        <f t="shared" si="8"/>
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>541</v>
+      </c>
+      <c r="B541">
+        <f t="shared" si="8"/>
+        <v>27050000</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>542</v>
+      </c>
+      <c r="B542">
+        <f t="shared" si="8"/>
+        <v>27100000</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>543</v>
+      </c>
+      <c r="B543">
+        <f t="shared" si="8"/>
+        <v>27150000</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>544</v>
+      </c>
+      <c r="B544">
+        <f t="shared" si="8"/>
+        <v>27200000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>545</v>
+      </c>
+      <c r="B545">
+        <f t="shared" si="8"/>
+        <v>27250000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>546</v>
+      </c>
+      <c r="B546">
+        <f t="shared" si="8"/>
+        <v>27300000</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>547</v>
+      </c>
+      <c r="B547">
+        <f t="shared" si="8"/>
+        <v>27350000</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>548</v>
+      </c>
+      <c r="B548">
+        <f t="shared" si="8"/>
+        <v>27400000</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>549</v>
+      </c>
+      <c r="B549">
+        <f t="shared" si="8"/>
+        <v>27450000</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>550</v>
+      </c>
+      <c r="B550">
+        <f t="shared" si="8"/>
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>551</v>
+      </c>
+      <c r="B551">
+        <f t="shared" si="8"/>
+        <v>27550000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>552</v>
+      </c>
+      <c r="B552">
+        <f t="shared" si="8"/>
+        <v>27600000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>553</v>
+      </c>
+      <c r="B553">
+        <f t="shared" si="8"/>
+        <v>27650000</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>554</v>
+      </c>
+      <c r="B554">
+        <f t="shared" si="8"/>
+        <v>27700000</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>555</v>
+      </c>
+      <c r="B555">
+        <f t="shared" si="8"/>
+        <v>27750000</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>556</v>
+      </c>
+      <c r="B556">
+        <f t="shared" si="8"/>
+        <v>27800000</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>557</v>
+      </c>
+      <c r="B557">
+        <f t="shared" si="8"/>
+        <v>27850000</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>558</v>
+      </c>
+      <c r="B558">
+        <f t="shared" si="8"/>
+        <v>27900000</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>559</v>
+      </c>
+      <c r="B559">
+        <f t="shared" si="8"/>
+        <v>27950000</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>560</v>
+      </c>
+      <c r="B560">
+        <f t="shared" si="8"/>
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>561</v>
+      </c>
+      <c r="B561">
+        <f t="shared" si="8"/>
+        <v>28050000</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>562</v>
+      </c>
+      <c r="B562">
+        <f t="shared" si="8"/>
+        <v>28100000</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>563</v>
+      </c>
+      <c r="B563">
+        <f t="shared" si="8"/>
+        <v>28150000</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>564</v>
+      </c>
+      <c r="B564">
+        <f t="shared" si="8"/>
+        <v>28200000</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>565</v>
+      </c>
+      <c r="B565">
+        <f t="shared" si="8"/>
+        <v>28250000</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>566</v>
+      </c>
+      <c r="B566">
+        <f t="shared" si="8"/>
+        <v>28300000</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>567</v>
+      </c>
+      <c r="B567">
+        <f t="shared" si="8"/>
+        <v>28350000</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>568</v>
+      </c>
+      <c r="B568">
+        <f t="shared" si="8"/>
+        <v>28400000</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>569</v>
+      </c>
+      <c r="B569">
+        <f t="shared" si="8"/>
+        <v>28450000</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>570</v>
+      </c>
+      <c r="B570">
+        <f t="shared" si="8"/>
+        <v>28500000</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>571</v>
+      </c>
+      <c r="B571">
+        <f t="shared" si="8"/>
+        <v>28550000</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>572</v>
+      </c>
+      <c r="B572">
+        <f t="shared" si="8"/>
+        <v>28600000</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>573</v>
+      </c>
+      <c r="B573">
+        <f t="shared" si="8"/>
+        <v>28650000</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>574</v>
+      </c>
+      <c r="B574">
+        <f t="shared" si="8"/>
+        <v>28700000</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>575</v>
+      </c>
+      <c r="B575">
+        <f t="shared" si="8"/>
+        <v>28750000</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>576</v>
+      </c>
+      <c r="B576">
+        <f t="shared" si="8"/>
+        <v>28800000</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>577</v>
+      </c>
+      <c r="B577">
+        <f t="shared" si="8"/>
+        <v>28850000</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>578</v>
+      </c>
+      <c r="B578">
+        <f t="shared" ref="B578:B641" si="9">A578*50000</f>
+        <v>28900000</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>579</v>
+      </c>
+      <c r="B579">
+        <f t="shared" si="9"/>
+        <v>28950000</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>580</v>
+      </c>
+      <c r="B580">
+        <f t="shared" si="9"/>
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>581</v>
+      </c>
+      <c r="B581">
+        <f t="shared" si="9"/>
+        <v>29050000</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>582</v>
+      </c>
+      <c r="B582">
+        <f t="shared" si="9"/>
+        <v>29100000</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>583</v>
+      </c>
+      <c r="B583">
+        <f t="shared" si="9"/>
+        <v>29150000</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>584</v>
+      </c>
+      <c r="B584">
+        <f t="shared" si="9"/>
+        <v>29200000</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>585</v>
+      </c>
+      <c r="B585">
+        <f t="shared" si="9"/>
+        <v>29250000</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>586</v>
+      </c>
+      <c r="B586">
+        <f t="shared" si="9"/>
+        <v>29300000</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>587</v>
+      </c>
+      <c r="B587">
+        <f t="shared" si="9"/>
+        <v>29350000</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>588</v>
+      </c>
+      <c r="B588">
+        <f t="shared" si="9"/>
+        <v>29400000</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>589</v>
+      </c>
+      <c r="B589">
+        <f t="shared" si="9"/>
+        <v>29450000</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>590</v>
+      </c>
+      <c r="B590">
+        <f t="shared" si="9"/>
+        <v>29500000</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>591</v>
+      </c>
+      <c r="B591">
+        <f t="shared" si="9"/>
+        <v>29550000</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>592</v>
+      </c>
+      <c r="B592">
+        <f t="shared" si="9"/>
+        <v>29600000</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>593</v>
+      </c>
+      <c r="B593">
+        <f t="shared" si="9"/>
+        <v>29650000</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>594</v>
+      </c>
+      <c r="B594">
+        <f t="shared" si="9"/>
+        <v>29700000</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>595</v>
+      </c>
+      <c r="B595">
+        <f t="shared" si="9"/>
+        <v>29750000</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>596</v>
+      </c>
+      <c r="B596">
+        <f t="shared" si="9"/>
+        <v>29800000</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>597</v>
+      </c>
+      <c r="B597">
+        <f t="shared" si="9"/>
+        <v>29850000</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>598</v>
+      </c>
+      <c r="B598">
+        <f t="shared" si="9"/>
+        <v>29900000</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>599</v>
+      </c>
+      <c r="B599">
+        <f t="shared" si="9"/>
+        <v>29950000</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>600</v>
+      </c>
+      <c r="B600">
+        <f t="shared" si="9"/>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>601</v>
+      </c>
+      <c r="B601">
+        <f t="shared" si="9"/>
+        <v>30050000</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>602</v>
+      </c>
+      <c r="B602">
+        <f t="shared" si="9"/>
+        <v>30100000</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>603</v>
+      </c>
+      <c r="B603">
+        <f t="shared" si="9"/>
+        <v>30150000</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>604</v>
+      </c>
+      <c r="B604">
+        <f t="shared" si="9"/>
+        <v>30200000</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>605</v>
+      </c>
+      <c r="B605">
+        <f t="shared" si="9"/>
+        <v>30250000</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>606</v>
+      </c>
+      <c r="B606">
+        <f t="shared" si="9"/>
+        <v>30300000</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>607</v>
+      </c>
+      <c r="B607">
+        <f t="shared" si="9"/>
+        <v>30350000</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>608</v>
+      </c>
+      <c r="B608">
+        <f t="shared" si="9"/>
+        <v>30400000</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>609</v>
+      </c>
+      <c r="B609">
+        <f t="shared" si="9"/>
+        <v>30450000</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>610</v>
+      </c>
+      <c r="B610">
+        <f t="shared" si="9"/>
+        <v>30500000</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>611</v>
+      </c>
+      <c r="B611">
+        <f t="shared" si="9"/>
+        <v>30550000</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>612</v>
+      </c>
+      <c r="B612">
+        <f t="shared" si="9"/>
+        <v>30600000</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>613</v>
+      </c>
+      <c r="B613">
+        <f t="shared" si="9"/>
+        <v>30650000</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>614</v>
+      </c>
+      <c r="B614">
+        <f t="shared" si="9"/>
+        <v>30700000</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>615</v>
+      </c>
+      <c r="B615">
+        <f t="shared" si="9"/>
+        <v>30750000</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>616</v>
+      </c>
+      <c r="B616">
+        <f t="shared" si="9"/>
+        <v>30800000</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>617</v>
+      </c>
+      <c r="B617">
+        <f t="shared" si="9"/>
+        <v>30850000</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>618</v>
+      </c>
+      <c r="B618">
+        <f t="shared" si="9"/>
+        <v>30900000</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>619</v>
+      </c>
+      <c r="B619">
+        <f t="shared" si="9"/>
+        <v>30950000</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>620</v>
+      </c>
+      <c r="B620">
+        <f t="shared" si="9"/>
+        <v>31000000</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>621</v>
+      </c>
+      <c r="B621">
+        <f t="shared" si="9"/>
+        <v>31050000</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>622</v>
+      </c>
+      <c r="B622">
+        <f t="shared" si="9"/>
+        <v>31100000</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>623</v>
+      </c>
+      <c r="B623">
+        <f t="shared" si="9"/>
+        <v>31150000</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>624</v>
+      </c>
+      <c r="B624">
+        <f t="shared" si="9"/>
+        <v>31200000</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>625</v>
+      </c>
+      <c r="B625">
+        <f t="shared" si="9"/>
+        <v>31250000</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>626</v>
+      </c>
+      <c r="B626">
+        <f t="shared" si="9"/>
+        <v>31300000</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>627</v>
+      </c>
+      <c r="B627">
+        <f t="shared" si="9"/>
+        <v>31350000</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>628</v>
+      </c>
+      <c r="B628">
+        <f t="shared" si="9"/>
+        <v>31400000</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>629</v>
+      </c>
+      <c r="B629">
+        <f t="shared" si="9"/>
+        <v>31450000</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>630</v>
+      </c>
+      <c r="B630">
+        <f t="shared" si="9"/>
+        <v>31500000</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>631</v>
+      </c>
+      <c r="B631">
+        <f t="shared" si="9"/>
+        <v>31550000</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>632</v>
+      </c>
+      <c r="B632">
+        <f t="shared" si="9"/>
+        <v>31600000</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>633</v>
+      </c>
+      <c r="B633">
+        <f t="shared" si="9"/>
+        <v>31650000</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>634</v>
+      </c>
+      <c r="B634">
+        <f t="shared" si="9"/>
+        <v>31700000</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>635</v>
+      </c>
+      <c r="B635">
+        <f t="shared" si="9"/>
+        <v>31750000</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>636</v>
+      </c>
+      <c r="B636">
+        <f t="shared" si="9"/>
+        <v>31800000</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>637</v>
+      </c>
+      <c r="B637">
+        <f t="shared" si="9"/>
+        <v>31850000</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>638</v>
+      </c>
+      <c r="B638">
+        <f t="shared" si="9"/>
+        <v>31900000</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>639</v>
+      </c>
+      <c r="B639">
+        <f t="shared" si="9"/>
+        <v>31950000</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>640</v>
+      </c>
+      <c r="B640">
+        <f t="shared" si="9"/>
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>641</v>
+      </c>
+      <c r="B641">
+        <f t="shared" si="9"/>
+        <v>32050000</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>642</v>
+      </c>
+      <c r="B642">
+        <f t="shared" ref="B642:B705" si="10">A642*50000</f>
+        <v>32100000</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>643</v>
+      </c>
+      <c r="B643">
+        <f t="shared" si="10"/>
+        <v>32150000</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>644</v>
+      </c>
+      <c r="B644">
+        <f t="shared" si="10"/>
+        <v>32200000</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>645</v>
+      </c>
+      <c r="B645">
+        <f t="shared" si="10"/>
+        <v>32250000</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>646</v>
+      </c>
+      <c r="B646">
+        <f t="shared" si="10"/>
+        <v>32300000</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>647</v>
+      </c>
+      <c r="B647">
+        <f t="shared" si="10"/>
+        <v>32350000</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>648</v>
+      </c>
+      <c r="B648">
+        <f t="shared" si="10"/>
+        <v>32400000</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>649</v>
+      </c>
+      <c r="B649">
+        <f t="shared" si="10"/>
+        <v>32450000</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>650</v>
+      </c>
+      <c r="B650">
+        <f t="shared" si="10"/>
+        <v>32500000</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>651</v>
+      </c>
+      <c r="B651">
+        <f t="shared" si="10"/>
+        <v>32550000</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>652</v>
+      </c>
+      <c r="B652">
+        <f t="shared" si="10"/>
+        <v>32600000</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>653</v>
+      </c>
+      <c r="B653">
+        <f t="shared" si="10"/>
+        <v>32650000</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>654</v>
+      </c>
+      <c r="B654">
+        <f t="shared" si="10"/>
+        <v>32700000</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>655</v>
+      </c>
+      <c r="B655">
+        <f t="shared" si="10"/>
+        <v>32750000</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>656</v>
+      </c>
+      <c r="B656">
+        <f t="shared" si="10"/>
+        <v>32800000</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>657</v>
+      </c>
+      <c r="B657">
+        <f t="shared" si="10"/>
+        <v>32850000</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>658</v>
+      </c>
+      <c r="B658">
+        <f t="shared" si="10"/>
+        <v>32900000</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>659</v>
+      </c>
+      <c r="B659">
+        <f t="shared" si="10"/>
+        <v>32950000</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>660</v>
+      </c>
+      <c r="B660">
+        <f t="shared" si="10"/>
+        <v>33000000</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>661</v>
+      </c>
+      <c r="B661">
+        <f t="shared" si="10"/>
+        <v>33050000</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>662</v>
+      </c>
+      <c r="B662">
+        <f t="shared" si="10"/>
+        <v>33100000</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>663</v>
+      </c>
+      <c r="B663">
+        <f t="shared" si="10"/>
+        <v>33150000</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>664</v>
+      </c>
+      <c r="B664">
+        <f t="shared" si="10"/>
+        <v>33200000</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>665</v>
+      </c>
+      <c r="B665">
+        <f t="shared" si="10"/>
+        <v>33250000</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>666</v>
+      </c>
+      <c r="B666">
+        <f t="shared" si="10"/>
+        <v>33300000</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>667</v>
+      </c>
+      <c r="B667">
+        <f t="shared" si="10"/>
+        <v>33350000</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>668</v>
+      </c>
+      <c r="B668">
+        <f t="shared" si="10"/>
+        <v>33400000</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>669</v>
+      </c>
+      <c r="B669">
+        <f t="shared" si="10"/>
+        <v>33450000</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>670</v>
+      </c>
+      <c r="B670">
+        <f t="shared" si="10"/>
+        <v>33500000</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>671</v>
+      </c>
+      <c r="B671">
+        <f t="shared" si="10"/>
+        <v>33550000</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>672</v>
+      </c>
+      <c r="B672">
+        <f t="shared" si="10"/>
+        <v>33600000</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>673</v>
+      </c>
+      <c r="B673">
+        <f t="shared" si="10"/>
+        <v>33650000</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>674</v>
+      </c>
+      <c r="B674">
+        <f t="shared" si="10"/>
+        <v>33700000</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>675</v>
+      </c>
+      <c r="B675">
+        <f t="shared" si="10"/>
+        <v>33750000</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>676</v>
+      </c>
+      <c r="B676">
+        <f t="shared" si="10"/>
+        <v>33800000</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>677</v>
+      </c>
+      <c r="B677">
+        <f t="shared" si="10"/>
+        <v>33850000</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>678</v>
+      </c>
+      <c r="B678">
+        <f t="shared" si="10"/>
+        <v>33900000</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>679</v>
+      </c>
+      <c r="B679">
+        <f t="shared" si="10"/>
+        <v>33950000</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>680</v>
+      </c>
+      <c r="B680">
+        <f t="shared" si="10"/>
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>681</v>
+      </c>
+      <c r="B681">
+        <f t="shared" si="10"/>
+        <v>34050000</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>682</v>
+      </c>
+      <c r="B682">
+        <f t="shared" si="10"/>
+        <v>34100000</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>683</v>
+      </c>
+      <c r="B683">
+        <f t="shared" si="10"/>
+        <v>34150000</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>684</v>
+      </c>
+      <c r="B684">
+        <f t="shared" si="10"/>
+        <v>34200000</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>685</v>
+      </c>
+      <c r="B685">
+        <f t="shared" si="10"/>
+        <v>34250000</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>686</v>
+      </c>
+      <c r="B686">
+        <f t="shared" si="10"/>
+        <v>34300000</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>687</v>
+      </c>
+      <c r="B687">
+        <f t="shared" si="10"/>
+        <v>34350000</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>688</v>
+      </c>
+      <c r="B688">
+        <f t="shared" si="10"/>
+        <v>34400000</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>689</v>
+      </c>
+      <c r="B689">
+        <f t="shared" si="10"/>
+        <v>34450000</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>690</v>
+      </c>
+      <c r="B690">
+        <f t="shared" si="10"/>
+        <v>34500000</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>691</v>
+      </c>
+      <c r="B691">
+        <f t="shared" si="10"/>
+        <v>34550000</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>692</v>
+      </c>
+      <c r="B692">
+        <f t="shared" si="10"/>
+        <v>34600000</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>693</v>
+      </c>
+      <c r="B693">
+        <f t="shared" si="10"/>
+        <v>34650000</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>694</v>
+      </c>
+      <c r="B694">
+        <f t="shared" si="10"/>
+        <v>34700000</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>695</v>
+      </c>
+      <c r="B695">
+        <f t="shared" si="10"/>
+        <v>34750000</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>696</v>
+      </c>
+      <c r="B696">
+        <f t="shared" si="10"/>
+        <v>34800000</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>697</v>
+      </c>
+      <c r="B697">
+        <f t="shared" si="10"/>
+        <v>34850000</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>698</v>
+      </c>
+      <c r="B698">
+        <f t="shared" si="10"/>
+        <v>34900000</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>699</v>
+      </c>
+      <c r="B699">
+        <f t="shared" si="10"/>
+        <v>34950000</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>700</v>
+      </c>
+      <c r="B700">
+        <f t="shared" si="10"/>
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>701</v>
+      </c>
+      <c r="B701">
+        <f t="shared" si="10"/>
+        <v>35050000</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>702</v>
+      </c>
+      <c r="B702">
+        <f t="shared" si="10"/>
+        <v>35100000</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>703</v>
+      </c>
+      <c r="B703">
+        <f t="shared" si="10"/>
+        <v>35150000</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>704</v>
+      </c>
+      <c r="B704">
+        <f t="shared" si="10"/>
+        <v>35200000</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>705</v>
+      </c>
+      <c r="B705">
+        <f t="shared" si="10"/>
+        <v>35250000</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>706</v>
+      </c>
+      <c r="B706">
+        <f t="shared" ref="B706:B769" si="11">A706*50000</f>
+        <v>35300000</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>707</v>
+      </c>
+      <c r="B707">
+        <f t="shared" si="11"/>
+        <v>35350000</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>708</v>
+      </c>
+      <c r="B708">
+        <f t="shared" si="11"/>
+        <v>35400000</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>709</v>
+      </c>
+      <c r="B709">
+        <f t="shared" si="11"/>
+        <v>35450000</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>710</v>
+      </c>
+      <c r="B710">
+        <f t="shared" si="11"/>
+        <v>35500000</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>711</v>
+      </c>
+      <c r="B711">
+        <f t="shared" si="11"/>
+        <v>35550000</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>712</v>
+      </c>
+      <c r="B712">
+        <f t="shared" si="11"/>
+        <v>35600000</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>713</v>
+      </c>
+      <c r="B713">
+        <f t="shared" si="11"/>
+        <v>35650000</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>714</v>
+      </c>
+      <c r="B714">
+        <f t="shared" si="11"/>
+        <v>35700000</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>715</v>
+      </c>
+      <c r="B715">
+        <f t="shared" si="11"/>
+        <v>35750000</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>716</v>
+      </c>
+      <c r="B716">
+        <f t="shared" si="11"/>
+        <v>35800000</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>717</v>
+      </c>
+      <c r="B717">
+        <f t="shared" si="11"/>
+        <v>35850000</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>718</v>
+      </c>
+      <c r="B718">
+        <f t="shared" si="11"/>
+        <v>35900000</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>719</v>
+      </c>
+      <c r="B719">
+        <f t="shared" si="11"/>
+        <v>35950000</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>720</v>
+      </c>
+      <c r="B720">
+        <f t="shared" si="11"/>
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>721</v>
+      </c>
+      <c r="B721">
+        <f t="shared" si="11"/>
+        <v>36050000</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>722</v>
+      </c>
+      <c r="B722">
+        <f t="shared" si="11"/>
+        <v>36100000</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>723</v>
+      </c>
+      <c r="B723">
+        <f t="shared" si="11"/>
+        <v>36150000</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>724</v>
+      </c>
+      <c r="B724">
+        <f t="shared" si="11"/>
+        <v>36200000</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>725</v>
+      </c>
+      <c r="B725">
+        <f t="shared" si="11"/>
+        <v>36250000</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>726</v>
+      </c>
+      <c r="B726">
+        <f t="shared" si="11"/>
+        <v>36300000</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>727</v>
+      </c>
+      <c r="B727">
+        <f t="shared" si="11"/>
+        <v>36350000</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>728</v>
+      </c>
+      <c r="B728">
+        <f t="shared" si="11"/>
+        <v>36400000</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>729</v>
+      </c>
+      <c r="B729">
+        <f t="shared" si="11"/>
+        <v>36450000</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>730</v>
+      </c>
+      <c r="B730">
+        <f t="shared" si="11"/>
+        <v>36500000</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>731</v>
+      </c>
+      <c r="B731">
+        <f t="shared" si="11"/>
+        <v>36550000</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>732</v>
+      </c>
+      <c r="B732">
+        <f t="shared" si="11"/>
+        <v>36600000</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>733</v>
+      </c>
+      <c r="B733">
+        <f t="shared" si="11"/>
+        <v>36650000</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>734</v>
+      </c>
+      <c r="B734">
+        <f t="shared" si="11"/>
+        <v>36700000</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>735</v>
+      </c>
+      <c r="B735">
+        <f t="shared" si="11"/>
+        <v>36750000</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>736</v>
+      </c>
+      <c r="B736">
+        <f t="shared" si="11"/>
+        <v>36800000</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>737</v>
+      </c>
+      <c r="B737">
+        <f t="shared" si="11"/>
+        <v>36850000</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>738</v>
+      </c>
+      <c r="B738">
+        <f t="shared" si="11"/>
+        <v>36900000</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>739</v>
+      </c>
+      <c r="B739">
+        <f t="shared" si="11"/>
+        <v>36950000</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>740</v>
+      </c>
+      <c r="B740">
+        <f t="shared" si="11"/>
+        <v>37000000</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>741</v>
+      </c>
+      <c r="B741">
+        <f t="shared" si="11"/>
+        <v>37050000</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>742</v>
+      </c>
+      <c r="B742">
+        <f t="shared" si="11"/>
+        <v>37100000</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>743</v>
+      </c>
+      <c r="B743">
+        <f t="shared" si="11"/>
+        <v>37150000</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>744</v>
+      </c>
+      <c r="B744">
+        <f t="shared" si="11"/>
+        <v>37200000</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>745</v>
+      </c>
+      <c r="B745">
+        <f t="shared" si="11"/>
+        <v>37250000</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>746</v>
+      </c>
+      <c r="B746">
+        <f t="shared" si="11"/>
+        <v>37300000</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>747</v>
+      </c>
+      <c r="B747">
+        <f t="shared" si="11"/>
+        <v>37350000</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>748</v>
+      </c>
+      <c r="B748">
+        <f t="shared" si="11"/>
+        <v>37400000</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>749</v>
+      </c>
+      <c r="B749">
+        <f t="shared" si="11"/>
+        <v>37450000</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>750</v>
+      </c>
+      <c r="B750">
+        <f t="shared" si="11"/>
+        <v>37500000</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>751</v>
+      </c>
+      <c r="B751">
+        <f t="shared" si="11"/>
+        <v>37550000</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>752</v>
+      </c>
+      <c r="B752">
+        <f t="shared" si="11"/>
+        <v>37600000</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>753</v>
+      </c>
+      <c r="B753">
+        <f t="shared" si="11"/>
+        <v>37650000</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>754</v>
+      </c>
+      <c r="B754">
+        <f t="shared" si="11"/>
+        <v>37700000</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>755</v>
+      </c>
+      <c r="B755">
+        <f t="shared" si="11"/>
+        <v>37750000</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>756</v>
+      </c>
+      <c r="B756">
+        <f t="shared" si="11"/>
+        <v>37800000</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>757</v>
+      </c>
+      <c r="B757">
+        <f t="shared" si="11"/>
+        <v>37850000</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>758</v>
+      </c>
+      <c r="B758">
+        <f t="shared" si="11"/>
+        <v>37900000</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>759</v>
+      </c>
+      <c r="B759">
+        <f t="shared" si="11"/>
+        <v>37950000</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>760</v>
+      </c>
+      <c r="B760">
+        <f t="shared" si="11"/>
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>761</v>
+      </c>
+      <c r="B761">
+        <f t="shared" si="11"/>
+        <v>38050000</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>762</v>
+      </c>
+      <c r="B762">
+        <f t="shared" si="11"/>
+        <v>38100000</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>763</v>
+      </c>
+      <c r="B763">
+        <f t="shared" si="11"/>
+        <v>38150000</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>764</v>
+      </c>
+      <c r="B764">
+        <f t="shared" si="11"/>
+        <v>38200000</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>765</v>
+      </c>
+      <c r="B765">
+        <f t="shared" si="11"/>
+        <v>38250000</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>766</v>
+      </c>
+      <c r="B766">
+        <f t="shared" si="11"/>
+        <v>38300000</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>767</v>
+      </c>
+      <c r="B767">
+        <f t="shared" si="11"/>
+        <v>38350000</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>768</v>
+      </c>
+      <c r="B768">
+        <f t="shared" si="11"/>
+        <v>38400000</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>769</v>
+      </c>
+      <c r="B769">
+        <f t="shared" si="11"/>
+        <v>38450000</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>770</v>
+      </c>
+      <c r="B770">
+        <f t="shared" ref="B770:B833" si="12">A770*50000</f>
+        <v>38500000</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>771</v>
+      </c>
+      <c r="B771">
+        <f t="shared" si="12"/>
+        <v>38550000</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>772</v>
+      </c>
+      <c r="B772">
+        <f t="shared" si="12"/>
+        <v>38600000</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>773</v>
+      </c>
+      <c r="B773">
+        <f t="shared" si="12"/>
+        <v>38650000</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>774</v>
+      </c>
+      <c r="B774">
+        <f t="shared" si="12"/>
+        <v>38700000</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>775</v>
+      </c>
+      <c r="B775">
+        <f t="shared" si="12"/>
+        <v>38750000</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>776</v>
+      </c>
+      <c r="B776">
+        <f t="shared" si="12"/>
+        <v>38800000</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>777</v>
+      </c>
+      <c r="B777">
+        <f t="shared" si="12"/>
+        <v>38850000</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>778</v>
+      </c>
+      <c r="B778">
+        <f t="shared" si="12"/>
+        <v>38900000</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>779</v>
+      </c>
+      <c r="B779">
+        <f t="shared" si="12"/>
+        <v>38950000</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>780</v>
+      </c>
+      <c r="B780">
+        <f t="shared" si="12"/>
+        <v>39000000</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>781</v>
+      </c>
+      <c r="B781">
+        <f t="shared" si="12"/>
+        <v>39050000</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>782</v>
+      </c>
+      <c r="B782">
+        <f t="shared" si="12"/>
+        <v>39100000</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>783</v>
+      </c>
+      <c r="B783">
+        <f t="shared" si="12"/>
+        <v>39150000</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>784</v>
+      </c>
+      <c r="B784">
+        <f t="shared" si="12"/>
+        <v>39200000</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>785</v>
+      </c>
+      <c r="B785">
+        <f t="shared" si="12"/>
+        <v>39250000</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>786</v>
+      </c>
+      <c r="B786">
+        <f t="shared" si="12"/>
+        <v>39300000</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>787</v>
+      </c>
+      <c r="B787">
+        <f t="shared" si="12"/>
+        <v>39350000</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>788</v>
+      </c>
+      <c r="B788">
+        <f t="shared" si="12"/>
+        <v>39400000</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>789</v>
+      </c>
+      <c r="B789">
+        <f t="shared" si="12"/>
+        <v>39450000</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>790</v>
+      </c>
+      <c r="B790">
+        <f t="shared" si="12"/>
+        <v>39500000</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>791</v>
+      </c>
+      <c r="B791">
+        <f t="shared" si="12"/>
+        <v>39550000</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>792</v>
+      </c>
+      <c r="B792">
+        <f t="shared" si="12"/>
+        <v>39600000</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>793</v>
+      </c>
+      <c r="B793">
+        <f t="shared" si="12"/>
+        <v>39650000</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>794</v>
+      </c>
+      <c r="B794">
+        <f t="shared" si="12"/>
+        <v>39700000</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>795</v>
+      </c>
+      <c r="B795">
+        <f t="shared" si="12"/>
+        <v>39750000</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>796</v>
+      </c>
+      <c r="B796">
+        <f t="shared" si="12"/>
+        <v>39800000</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>797</v>
+      </c>
+      <c r="B797">
+        <f t="shared" si="12"/>
+        <v>39850000</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>798</v>
+      </c>
+      <c r="B798">
+        <f t="shared" si="12"/>
+        <v>39900000</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>799</v>
+      </c>
+      <c r="B799">
+        <f t="shared" si="12"/>
+        <v>39950000</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>800</v>
+      </c>
+      <c r="B800">
+        <f t="shared" si="12"/>
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>801</v>
+      </c>
+      <c r="B801">
+        <f t="shared" si="12"/>
+        <v>40050000</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>802</v>
+      </c>
+      <c r="B802">
+        <f t="shared" si="12"/>
+        <v>40100000</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>803</v>
+      </c>
+      <c r="B803">
+        <f t="shared" si="12"/>
+        <v>40150000</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>804</v>
+      </c>
+      <c r="B804">
+        <f t="shared" si="12"/>
+        <v>40200000</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>805</v>
+      </c>
+      <c r="B805">
+        <f t="shared" si="12"/>
+        <v>40250000</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>806</v>
+      </c>
+      <c r="B806">
+        <f t="shared" si="12"/>
+        <v>40300000</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>807</v>
+      </c>
+      <c r="B807">
+        <f t="shared" si="12"/>
+        <v>40350000</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>808</v>
+      </c>
+      <c r="B808">
+        <f t="shared" si="12"/>
+        <v>40400000</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>809</v>
+      </c>
+      <c r="B809">
+        <f t="shared" si="12"/>
+        <v>40450000</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>810</v>
+      </c>
+      <c r="B810">
+        <f t="shared" si="12"/>
+        <v>40500000</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>811</v>
+      </c>
+      <c r="B811">
+        <f t="shared" si="12"/>
+        <v>40550000</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>812</v>
+      </c>
+      <c r="B812">
+        <f t="shared" si="12"/>
+        <v>40600000</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>813</v>
+      </c>
+      <c r="B813">
+        <f t="shared" si="12"/>
+        <v>40650000</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>814</v>
+      </c>
+      <c r="B814">
+        <f t="shared" si="12"/>
+        <v>40700000</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>815</v>
+      </c>
+      <c r="B815">
+        <f t="shared" si="12"/>
+        <v>40750000</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>816</v>
+      </c>
+      <c r="B816">
+        <f t="shared" si="12"/>
+        <v>40800000</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>817</v>
+      </c>
+      <c r="B817">
+        <f t="shared" si="12"/>
+        <v>40850000</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>818</v>
+      </c>
+      <c r="B818">
+        <f t="shared" si="12"/>
+        <v>40900000</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>819</v>
+      </c>
+      <c r="B819">
+        <f t="shared" si="12"/>
+        <v>40950000</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>820</v>
+      </c>
+      <c r="B820">
+        <f t="shared" si="12"/>
+        <v>41000000</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>821</v>
+      </c>
+      <c r="B821">
+        <f t="shared" si="12"/>
+        <v>41050000</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>822</v>
+      </c>
+      <c r="B822">
+        <f t="shared" si="12"/>
+        <v>41100000</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>823</v>
+      </c>
+      <c r="B823">
+        <f t="shared" si="12"/>
+        <v>41150000</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>824</v>
+      </c>
+      <c r="B824">
+        <f t="shared" si="12"/>
+        <v>41200000</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>825</v>
+      </c>
+      <c r="B825">
+        <f t="shared" si="12"/>
+        <v>41250000</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>826</v>
+      </c>
+      <c r="B826">
+        <f t="shared" si="12"/>
+        <v>41300000</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>827</v>
+      </c>
+      <c r="B827">
+        <f t="shared" si="12"/>
+        <v>41350000</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>828</v>
+      </c>
+      <c r="B828">
+        <f t="shared" si="12"/>
+        <v>41400000</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>829</v>
+      </c>
+      <c r="B829">
+        <f t="shared" si="12"/>
+        <v>41450000</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>830</v>
+      </c>
+      <c r="B830">
+        <f t="shared" si="12"/>
+        <v>41500000</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>831</v>
+      </c>
+      <c r="B831">
+        <f t="shared" si="12"/>
+        <v>41550000</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>832</v>
+      </c>
+      <c r="B832">
+        <f t="shared" si="12"/>
+        <v>41600000</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>833</v>
+      </c>
+      <c r="B833">
+        <f t="shared" si="12"/>
+        <v>41650000</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>834</v>
+      </c>
+      <c r="B834">
+        <f t="shared" ref="B834:B897" si="13">A834*50000</f>
+        <v>41700000</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>835</v>
+      </c>
+      <c r="B835">
+        <f t="shared" si="13"/>
+        <v>41750000</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>836</v>
+      </c>
+      <c r="B836">
+        <f t="shared" si="13"/>
+        <v>41800000</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>837</v>
+      </c>
+      <c r="B837">
+        <f t="shared" si="13"/>
+        <v>41850000</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>838</v>
+      </c>
+      <c r="B838">
+        <f t="shared" si="13"/>
+        <v>41900000</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>839</v>
+      </c>
+      <c r="B839">
+        <f t="shared" si="13"/>
+        <v>41950000</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>840</v>
+      </c>
+      <c r="B840">
+        <f t="shared" si="13"/>
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>841</v>
+      </c>
+      <c r="B841">
+        <f t="shared" si="13"/>
+        <v>42050000</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>842</v>
+      </c>
+      <c r="B842">
+        <f t="shared" si="13"/>
+        <v>42100000</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>843</v>
+      </c>
+      <c r="B843">
+        <f t="shared" si="13"/>
+        <v>42150000</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>844</v>
+      </c>
+      <c r="B844">
+        <f t="shared" si="13"/>
+        <v>42200000</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>845</v>
+      </c>
+      <c r="B845">
+        <f t="shared" si="13"/>
+        <v>42250000</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>846</v>
+      </c>
+      <c r="B846">
+        <f t="shared" si="13"/>
+        <v>42300000</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>847</v>
+      </c>
+      <c r="B847">
+        <f t="shared" si="13"/>
+        <v>42350000</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>848</v>
+      </c>
+      <c r="B848">
+        <f t="shared" si="13"/>
+        <v>42400000</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>849</v>
+      </c>
+      <c r="B849">
+        <f t="shared" si="13"/>
+        <v>42450000</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>850</v>
+      </c>
+      <c r="B850">
+        <f t="shared" si="13"/>
+        <v>42500000</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>851</v>
+      </c>
+      <c r="B851">
+        <f t="shared" si="13"/>
+        <v>42550000</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>852</v>
+      </c>
+      <c r="B852">
+        <f t="shared" si="13"/>
+        <v>42600000</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>853</v>
+      </c>
+      <c r="B853">
+        <f t="shared" si="13"/>
+        <v>42650000</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>854</v>
+      </c>
+      <c r="B854">
+        <f t="shared" si="13"/>
+        <v>42700000</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>855</v>
+      </c>
+      <c r="B855">
+        <f t="shared" si="13"/>
+        <v>42750000</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>856</v>
+      </c>
+      <c r="B856">
+        <f t="shared" si="13"/>
+        <v>42800000</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>857</v>
+      </c>
+      <c r="B857">
+        <f t="shared" si="13"/>
+        <v>42850000</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>858</v>
+      </c>
+      <c r="B858">
+        <f t="shared" si="13"/>
+        <v>42900000</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>859</v>
+      </c>
+      <c r="B859">
+        <f t="shared" si="13"/>
+        <v>42950000</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>860</v>
+      </c>
+      <c r="B860">
+        <f t="shared" si="13"/>
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>861</v>
+      </c>
+      <c r="B861">
+        <f t="shared" si="13"/>
+        <v>43050000</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>862</v>
+      </c>
+      <c r="B862">
+        <f t="shared" si="13"/>
+        <v>43100000</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>863</v>
+      </c>
+      <c r="B863">
+        <f t="shared" si="13"/>
+        <v>43150000</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>864</v>
+      </c>
+      <c r="B864">
+        <f t="shared" si="13"/>
+        <v>43200000</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>865</v>
+      </c>
+      <c r="B865">
+        <f t="shared" si="13"/>
+        <v>43250000</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>866</v>
+      </c>
+      <c r="B866">
+        <f t="shared" si="13"/>
+        <v>43300000</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>867</v>
+      </c>
+      <c r="B867">
+        <f t="shared" si="13"/>
+        <v>43350000</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>868</v>
+      </c>
+      <c r="B868">
+        <f t="shared" si="13"/>
+        <v>43400000</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>869</v>
+      </c>
+      <c r="B869">
+        <f t="shared" si="13"/>
+        <v>43450000</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>870</v>
+      </c>
+      <c r="B870">
+        <f t="shared" si="13"/>
+        <v>43500000</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>871</v>
+      </c>
+      <c r="B871">
+        <f t="shared" si="13"/>
+        <v>43550000</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>872</v>
+      </c>
+      <c r="B872">
+        <f t="shared" si="13"/>
+        <v>43600000</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>873</v>
+      </c>
+      <c r="B873">
+        <f t="shared" si="13"/>
+        <v>43650000</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>874</v>
+      </c>
+      <c r="B874">
+        <f t="shared" si="13"/>
+        <v>43700000</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>875</v>
+      </c>
+      <c r="B875">
+        <f t="shared" si="13"/>
+        <v>43750000</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>876</v>
+      </c>
+      <c r="B876">
+        <f t="shared" si="13"/>
+        <v>43800000</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>877</v>
+      </c>
+      <c r="B877">
+        <f t="shared" si="13"/>
+        <v>43850000</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>878</v>
+      </c>
+      <c r="B878">
+        <f t="shared" si="13"/>
+        <v>43900000</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>879</v>
+      </c>
+      <c r="B879">
+        <f t="shared" si="13"/>
+        <v>43950000</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>880</v>
+      </c>
+      <c r="B880">
+        <f t="shared" si="13"/>
+        <v>44000000</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>881</v>
+      </c>
+      <c r="B881">
+        <f t="shared" si="13"/>
+        <v>44050000</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>882</v>
+      </c>
+      <c r="B882">
+        <f t="shared" si="13"/>
+        <v>44100000</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>883</v>
+      </c>
+      <c r="B883">
+        <f t="shared" si="13"/>
+        <v>44150000</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>884</v>
+      </c>
+      <c r="B884">
+        <f t="shared" si="13"/>
+        <v>44200000</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>885</v>
+      </c>
+      <c r="B885">
+        <f t="shared" si="13"/>
+        <v>44250000</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>886</v>
+      </c>
+      <c r="B886">
+        <f t="shared" si="13"/>
+        <v>44300000</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>887</v>
+      </c>
+      <c r="B887">
+        <f t="shared" si="13"/>
+        <v>44350000</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>888</v>
+      </c>
+      <c r="B888">
+        <f t="shared" si="13"/>
+        <v>44400000</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>889</v>
+      </c>
+      <c r="B889">
+        <f t="shared" si="13"/>
+        <v>44450000</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>890</v>
+      </c>
+      <c r="B890">
+        <f t="shared" si="13"/>
+        <v>44500000</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>891</v>
+      </c>
+      <c r="B891">
+        <f t="shared" si="13"/>
+        <v>44550000</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>892</v>
+      </c>
+      <c r="B892">
+        <f t="shared" si="13"/>
+        <v>44600000</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>893</v>
+      </c>
+      <c r="B893">
+        <f t="shared" si="13"/>
+        <v>44650000</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>894</v>
+      </c>
+      <c r="B894">
+        <f t="shared" si="13"/>
+        <v>44700000</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>895</v>
+      </c>
+      <c r="B895">
+        <f t="shared" si="13"/>
+        <v>44750000</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>896</v>
+      </c>
+      <c r="B896">
+        <f t="shared" si="13"/>
+        <v>44800000</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>897</v>
+      </c>
+      <c r="B897">
+        <f t="shared" si="13"/>
+        <v>44850000</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>898</v>
+      </c>
+      <c r="B898">
+        <f t="shared" ref="B898:B961" si="14">A898*50000</f>
+        <v>44900000</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>899</v>
+      </c>
+      <c r="B899">
+        <f t="shared" si="14"/>
+        <v>44950000</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>900</v>
+      </c>
+      <c r="B900">
+        <f t="shared" si="14"/>
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>901</v>
+      </c>
+      <c r="B901">
+        <f t="shared" si="14"/>
+        <v>45050000</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>902</v>
+      </c>
+      <c r="B902">
+        <f t="shared" si="14"/>
+        <v>45100000</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>903</v>
+      </c>
+      <c r="B903">
+        <f t="shared" si="14"/>
+        <v>45150000</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>904</v>
+      </c>
+      <c r="B904">
+        <f t="shared" si="14"/>
+        <v>45200000</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>905</v>
+      </c>
+      <c r="B905">
+        <f t="shared" si="14"/>
+        <v>45250000</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>906</v>
+      </c>
+      <c r="B906">
+        <f t="shared" si="14"/>
+        <v>45300000</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>907</v>
+      </c>
+      <c r="B907">
+        <f t="shared" si="14"/>
+        <v>45350000</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>908</v>
+      </c>
+      <c r="B908">
+        <f t="shared" si="14"/>
+        <v>45400000</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>909</v>
+      </c>
+      <c r="B909">
+        <f t="shared" si="14"/>
+        <v>45450000</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>910</v>
+      </c>
+      <c r="B910">
+        <f t="shared" si="14"/>
+        <v>45500000</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>911</v>
+      </c>
+      <c r="B911">
+        <f t="shared" si="14"/>
+        <v>45550000</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>912</v>
+      </c>
+      <c r="B912">
+        <f t="shared" si="14"/>
+        <v>45600000</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>913</v>
+      </c>
+      <c r="B913">
+        <f t="shared" si="14"/>
+        <v>45650000</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>914</v>
+      </c>
+      <c r="B914">
+        <f t="shared" si="14"/>
+        <v>45700000</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>915</v>
+      </c>
+      <c r="B915">
+        <f t="shared" si="14"/>
+        <v>45750000</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>916</v>
+      </c>
+      <c r="B916">
+        <f t="shared" si="14"/>
+        <v>45800000</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>917</v>
+      </c>
+      <c r="B917">
+        <f t="shared" si="14"/>
+        <v>45850000</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>918</v>
+      </c>
+      <c r="B918">
+        <f t="shared" si="14"/>
+        <v>45900000</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>919</v>
+      </c>
+      <c r="B919">
+        <f t="shared" si="14"/>
+        <v>45950000</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>920</v>
+      </c>
+      <c r="B920">
+        <f t="shared" si="14"/>
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>921</v>
+      </c>
+      <c r="B921">
+        <f t="shared" si="14"/>
+        <v>46050000</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>922</v>
+      </c>
+      <c r="B922">
+        <f t="shared" si="14"/>
+        <v>46100000</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>923</v>
+      </c>
+      <c r="B923">
+        <f t="shared" si="14"/>
+        <v>46150000</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>924</v>
+      </c>
+      <c r="B924">
+        <f t="shared" si="14"/>
+        <v>46200000</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>925</v>
+      </c>
+      <c r="B925">
+        <f t="shared" si="14"/>
+        <v>46250000</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>926</v>
+      </c>
+      <c r="B926">
+        <f t="shared" si="14"/>
+        <v>46300000</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>927</v>
+      </c>
+      <c r="B927">
+        <f t="shared" si="14"/>
+        <v>46350000</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>928</v>
+      </c>
+      <c r="B928">
+        <f t="shared" si="14"/>
+        <v>46400000</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>929</v>
+      </c>
+      <c r="B929">
+        <f t="shared" si="14"/>
+        <v>46450000</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>930</v>
+      </c>
+      <c r="B930">
+        <f t="shared" si="14"/>
+        <v>46500000</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>931</v>
+      </c>
+      <c r="B931">
+        <f t="shared" si="14"/>
+        <v>46550000</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>932</v>
+      </c>
+      <c r="B932">
+        <f t="shared" si="14"/>
+        <v>46600000</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>933</v>
+      </c>
+      <c r="B933">
+        <f t="shared" si="14"/>
+        <v>46650000</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>934</v>
+      </c>
+      <c r="B934">
+        <f t="shared" si="14"/>
+        <v>46700000</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>935</v>
+      </c>
+      <c r="B935">
+        <f t="shared" si="14"/>
+        <v>46750000</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>936</v>
+      </c>
+      <c r="B936">
+        <f t="shared" si="14"/>
+        <v>46800000</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>937</v>
+      </c>
+      <c r="B937">
+        <f t="shared" si="14"/>
+        <v>46850000</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>938</v>
+      </c>
+      <c r="B938">
+        <f t="shared" si="14"/>
+        <v>46900000</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>939</v>
+      </c>
+      <c r="B939">
+        <f t="shared" si="14"/>
+        <v>46950000</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>940</v>
+      </c>
+      <c r="B940">
+        <f t="shared" si="14"/>
+        <v>47000000</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>941</v>
+      </c>
+      <c r="B941">
+        <f t="shared" si="14"/>
+        <v>47050000</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>942</v>
+      </c>
+      <c r="B942">
+        <f t="shared" si="14"/>
+        <v>47100000</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>943</v>
+      </c>
+      <c r="B943">
+        <f t="shared" si="14"/>
+        <v>47150000</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>944</v>
+      </c>
+      <c r="B944">
+        <f t="shared" si="14"/>
+        <v>47200000</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>945</v>
+      </c>
+      <c r="B945">
+        <f t="shared" si="14"/>
+        <v>47250000</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>946</v>
+      </c>
+      <c r="B946">
+        <f t="shared" si="14"/>
+        <v>47300000</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>947</v>
+      </c>
+      <c r="B947">
+        <f t="shared" si="14"/>
+        <v>47350000</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>948</v>
+      </c>
+      <c r="B948">
+        <f t="shared" si="14"/>
+        <v>47400000</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>949</v>
+      </c>
+      <c r="B949">
+        <f t="shared" si="14"/>
+        <v>47450000</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>950</v>
+      </c>
+      <c r="B950">
+        <f t="shared" si="14"/>
+        <v>47500000</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>951</v>
+      </c>
+      <c r="B951">
+        <f t="shared" si="14"/>
+        <v>47550000</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>952</v>
+      </c>
+      <c r="B952">
+        <f t="shared" si="14"/>
+        <v>47600000</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>953</v>
+      </c>
+      <c r="B953">
+        <f t="shared" si="14"/>
+        <v>47650000</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>954</v>
+      </c>
+      <c r="B954">
+        <f t="shared" si="14"/>
+        <v>47700000</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>955</v>
+      </c>
+      <c r="B955">
+        <f t="shared" si="14"/>
+        <v>47750000</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>956</v>
+      </c>
+      <c r="B956">
+        <f t="shared" si="14"/>
+        <v>47800000</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>957</v>
+      </c>
+      <c r="B957">
+        <f t="shared" si="14"/>
+        <v>47850000</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>958</v>
+      </c>
+      <c r="B958">
+        <f t="shared" si="14"/>
+        <v>47900000</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>959</v>
+      </c>
+      <c r="B959">
+        <f t="shared" si="14"/>
+        <v>47950000</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>960</v>
+      </c>
+      <c r="B960">
+        <f t="shared" si="14"/>
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>961</v>
+      </c>
+      <c r="B961">
+        <f t="shared" si="14"/>
+        <v>48050000</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>962</v>
+      </c>
+      <c r="B962">
+        <f t="shared" ref="B962:B1000" si="15">A962*50000</f>
+        <v>48100000</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>963</v>
+      </c>
+      <c r="B963">
+        <f t="shared" si="15"/>
+        <v>48150000</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>964</v>
+      </c>
+      <c r="B964">
+        <f t="shared" si="15"/>
+        <v>48200000</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>965</v>
+      </c>
+      <c r="B965">
+        <f t="shared" si="15"/>
+        <v>48250000</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>966</v>
+      </c>
+      <c r="B966">
+        <f t="shared" si="15"/>
+        <v>48300000</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>967</v>
+      </c>
+      <c r="B967">
+        <f t="shared" si="15"/>
+        <v>48350000</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>968</v>
+      </c>
+      <c r="B968">
+        <f t="shared" si="15"/>
+        <v>48400000</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>969</v>
+      </c>
+      <c r="B969">
+        <f t="shared" si="15"/>
+        <v>48450000</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>970</v>
+      </c>
+      <c r="B970">
+        <f t="shared" si="15"/>
+        <v>48500000</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>971</v>
+      </c>
+      <c r="B971">
+        <f t="shared" si="15"/>
+        <v>48550000</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>972</v>
+      </c>
+      <c r="B972">
+        <f t="shared" si="15"/>
+        <v>48600000</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>973</v>
+      </c>
+      <c r="B973">
+        <f t="shared" si="15"/>
+        <v>48650000</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>974</v>
+      </c>
+      <c r="B974">
+        <f t="shared" si="15"/>
+        <v>48700000</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>975</v>
+      </c>
+      <c r="B975">
+        <f t="shared" si="15"/>
+        <v>48750000</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>976</v>
+      </c>
+      <c r="B976">
+        <f t="shared" si="15"/>
+        <v>48800000</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>977</v>
+      </c>
+      <c r="B977">
+        <f t="shared" si="15"/>
+        <v>48850000</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>978</v>
+      </c>
+      <c r="B978">
+        <f t="shared" si="15"/>
+        <v>48900000</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>979</v>
+      </c>
+      <c r="B979">
+        <f t="shared" si="15"/>
+        <v>48950000</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>980</v>
+      </c>
+      <c r="B980">
+        <f t="shared" si="15"/>
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>981</v>
+      </c>
+      <c r="B981">
+        <f t="shared" si="15"/>
+        <v>49050000</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>982</v>
+      </c>
+      <c r="B982">
+        <f t="shared" si="15"/>
+        <v>49100000</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>983</v>
+      </c>
+      <c r="B983">
+        <f t="shared" si="15"/>
+        <v>49150000</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>984</v>
+      </c>
+      <c r="B984">
+        <f t="shared" si="15"/>
+        <v>49200000</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>985</v>
+      </c>
+      <c r="B985">
+        <f t="shared" si="15"/>
+        <v>49250000</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>986</v>
+      </c>
+      <c r="B986">
+        <f t="shared" si="15"/>
+        <v>49300000</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>987</v>
+      </c>
+      <c r="B987">
+        <f t="shared" si="15"/>
+        <v>49350000</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>988</v>
+      </c>
+      <c r="B988">
+        <f t="shared" si="15"/>
+        <v>49400000</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>989</v>
+      </c>
+      <c r="B989">
+        <f t="shared" si="15"/>
+        <v>49450000</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>990</v>
+      </c>
+      <c r="B990">
+        <f t="shared" si="15"/>
+        <v>49500000</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>991</v>
+      </c>
+      <c r="B991">
+        <f t="shared" si="15"/>
+        <v>49550000</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>992</v>
+      </c>
+      <c r="B992">
+        <f t="shared" si="15"/>
+        <v>49600000</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>993</v>
+      </c>
+      <c r="B993">
+        <f t="shared" si="15"/>
+        <v>49650000</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>994</v>
+      </c>
+      <c r="B994">
+        <f t="shared" si="15"/>
+        <v>49700000</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>995</v>
+      </c>
+      <c r="B995">
+        <f t="shared" si="15"/>
+        <v>49750000</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>996</v>
+      </c>
+      <c r="B996">
+        <f t="shared" si="15"/>
+        <v>49800000</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>997</v>
+      </c>
+      <c r="B997">
+        <f t="shared" si="15"/>
+        <v>49850000</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>998</v>
+      </c>
+      <c r="B998">
+        <f t="shared" si="15"/>
+        <v>49900000</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>999</v>
+      </c>
+      <c r="B999">
+        <f t="shared" si="15"/>
+        <v>49950000</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>1000</v>
+      </c>
+      <c r="B1000">
+        <f t="shared" si="15"/>
+        <v>50000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83B827-639A-4318-983C-B1872A2250E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF909D9F-B7AF-47EF-882F-6783C502CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="H4">
         <v>300</v>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF909D9F-B7AF-47EF-882F-6783C502CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED4D1F-02B9-4996-ACA5-31DBA2D9929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -577,7 +577,7 @@
         <v>30000</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="I4">
         <v>1000</v>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED4D1F-02B9-4996-ACA5-31DBA2D9929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E7B777-1386-4953-AEE6-1046256A60AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -84,11 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>??</t>
+    <t>yomul2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yomul2</t>
+    <t>테스트용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,21 +456,21 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="19.08203125" customWidth="1"/>
+    <col min="7" max="7" width="26.58203125" customWidth="1"/>
+    <col min="8" max="8" width="26.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -554,12 +554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -568,7 +568,7 @@
         <v>1000000000</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>11</v>
@@ -598,12 +598,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -616,7 +616,7 @@
         <v>25025000000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -625,7 +625,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -634,7 +634,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -643,7 +643,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -652,7 +652,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -661,7 +661,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -670,7 +670,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -679,7 +679,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -688,7 +688,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
@@ -697,7 +697,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>11</v>
       </c>
@@ -706,7 +706,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>12</v>
       </c>
@@ -715,7 +715,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>13</v>
       </c>
@@ -724,7 +724,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>14</v>
       </c>
@@ -733,7 +733,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>15</v>
       </c>
@@ -742,7 +742,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>16</v>
       </c>
@@ -751,7 +751,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>17</v>
       </c>
@@ -760,7 +760,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>18</v>
       </c>
@@ -769,7 +769,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>19</v>
       </c>
@@ -778,7 +778,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>20</v>
       </c>
@@ -787,7 +787,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>21</v>
       </c>
@@ -796,7 +796,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>22</v>
       </c>
@@ -805,7 +805,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>23</v>
       </c>
@@ -814,7 +814,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>24</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>25</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>26</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>27</v>
       </c>
@@ -850,7 +850,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>28</v>
       </c>
@@ -859,7 +859,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>29</v>
       </c>
@@ -868,7 +868,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>30</v>
       </c>
@@ -877,7 +877,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>31</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>32</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>33</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>34</v>
       </c>
@@ -913,7 +913,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>35</v>
       </c>
@@ -922,7 +922,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>36</v>
       </c>
@@ -931,7 +931,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>37</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>38</v>
       </c>
@@ -949,7 +949,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>39</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>40</v>
       </c>
@@ -967,7 +967,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>41</v>
       </c>
@@ -976,7 +976,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>42</v>
       </c>
@@ -985,7 +985,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>43</v>
       </c>
@@ -994,7 +994,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>96</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>97</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>98</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>99</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>100</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>101</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>102</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>103</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>104</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>105</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>107</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>108</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>109</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>110</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>111</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>112</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>113</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>135</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>136</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>137</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>138</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>139</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>140</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>141</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>142</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>143</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>144</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>145</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>146</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>147</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>148</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>149</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>150</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>151</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>152</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>153</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>154</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>176</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>177</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>178</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>179</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>180</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>181</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>182</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>183</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>184</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>185</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>186</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>187</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>188</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>189</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>190</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>191</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>192</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>193</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>194</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>195</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>196</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>197</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>198</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>199</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>200</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>201</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>202</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>203</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>204</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>205</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>206</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>207</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>10350000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>208</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>10400000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>209</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>210</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>211</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>10550000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>212</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>10600000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>213</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>10650000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>214</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>10700000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>215</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>10750000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>216</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>217</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>10850000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>218</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>219</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>220</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>221</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>11050000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>222</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>223</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>11150000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>224</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>225</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>226</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>227</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>11350000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>228</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>229</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>230</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>231</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>11550000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>232</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>233</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>234</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>11700000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>235</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>11750000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>236</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>237</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>238</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>239</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>240</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>241</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>242</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>12100000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>243</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>244</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>12200000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>245</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>12250000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>246</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>247</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>12350000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>248</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>12400000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>249</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>250</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>251</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>12550000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>252</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>12600000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>253</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>12650000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>254</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>255</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>256</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>257</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>12850000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>258</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>259</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>12950000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>260</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>261</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>262</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>13100000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>263</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>13150000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>264</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>13200000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>265</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>13250000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>266</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>267</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>13350000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>268</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>269</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>270</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>271</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>272</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>273</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>274</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>13700000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>275</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>13750000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>276</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>13800000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>277</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>13850000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>278</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>279</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>280</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>281</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>14050000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>282</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>283</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>14150000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>284</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>14200000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>285</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>14250000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>286</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>14300000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>287</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>14350000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>288</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>289</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>14450000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>290</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>291</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>292</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>14600000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>293</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>294</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>14700000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>295</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>14750000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>296</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>14800000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>297</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>14850000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>298</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>299</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>300</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>301</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>302</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>15100000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>303</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>15150000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>304</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>305</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>15250000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>306</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>15300000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>307</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>15350000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>308</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>15400000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>309</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>15450000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>310</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>311</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>312</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>313</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>15650000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>314</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>15700000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>315</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>316</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>317</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>15850000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>318</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>15900000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>319</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>320</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>321</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>322</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>323</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>16150000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>324</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>325</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>326</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>327</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>16350000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>328</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>329</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>16450000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>330</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>331</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>332</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>333</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>16650000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>334</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>16700000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>335</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>16750000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>336</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>337</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>16850000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>338</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>339</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>340</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>341</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>342</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>343</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>344</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>17200000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>345</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>17250000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>346</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>347</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>17350000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>348</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>349</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>350</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>351</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>352</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>17600000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>353</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>354</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>17700000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>355</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>356</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>357</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>17850000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>358</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>359</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>360</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>361</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>18050000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>362</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>363</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>18150000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>364</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>365</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>366</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>367</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>18350000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>368</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>369</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>370</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>371</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>18550000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>372</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>373</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>18650000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>374</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>375</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>376</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>377</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>18850000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>378</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>18900000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>379</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>18950000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>380</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>381</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>382</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>383</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>384</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>385</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>386</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>19300000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>387</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>388</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>389</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>19450000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>390</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>391</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>19550000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>392</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>393</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>394</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>395</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>19750000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>396</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>397</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>19850000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>398</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>19900000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>399</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>19950000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>400</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>401</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>20050000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>402</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>403</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>20150000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>404</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>405</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>20250000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>406</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>20300000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>407</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>20350000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>408</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>409</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>20450000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>410</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>411</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>20550000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>412</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>413</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>414</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>415</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>20750000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>416</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>417</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>20850000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>418</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>419</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>20950000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>420</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>421</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>21050000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>422</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>21100000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>423</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>21150000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>424</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>21200000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>425</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>21250000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>426</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>427</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>21350000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>428</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>21400000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>429</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>430</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>431</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>21550000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>432</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>433</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>21650000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>434</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>21700000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>435</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>436</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>21800000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>437</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>21850000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>438</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>21900000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>439</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>21950000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>440</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>441</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>22050000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>442</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>443</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>22150000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>444</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>22200000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>445</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>22250000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>446</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>22300000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>447</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>448</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>449</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>450</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>451</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>452</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>453</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>22650000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>454</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>455</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>456</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>22800000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>457</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>458</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>459</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>22950000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>460</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>461</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>462</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>463</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>464</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>23200000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>465</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>466</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>467</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>23350000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>468</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>469</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>470</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>23500000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>471</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>23550000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>472</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>23600000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>473</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>23650000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>474</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>475</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>23750000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>476</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>477</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>23850000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>478</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>479</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>480</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>481</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>482</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>483</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>484</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>485</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>486</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>487</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>24350000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>488</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>24400000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>489</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>490</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>491</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>24550000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>492</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>24600000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>493</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>494</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>495</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>496</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>497</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>24850000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>498</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>499</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>500</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>501</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>502</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>25100000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>503</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>25150000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>504</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>505</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>25250000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>506</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>507</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>508</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>25400000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>509</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>25450000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>510</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>511</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>512</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>513</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>514</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>25700000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>515</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>25750000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>516</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>517</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>25850000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>518</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>519</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>520</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>521</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>26050000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>522</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>26100000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>523</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>26150000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>524</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>525</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>526</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>527</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>26350000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>528</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>529</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>26450000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>530</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>531</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>26550000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>532</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>26600000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>533</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>26650000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>534</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>26700000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>535</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>26750000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>536</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>26800000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>537</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>26850000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>538</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>26900000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>539</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>26950000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>540</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>541</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>27050000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>542</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>543</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>27150000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>544</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>27200000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>545</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>27250000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>546</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>27300000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>547</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>27350000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>548</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>27400000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>549</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>27450000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>550</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>551</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>27550000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>552</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>553</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>27650000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>554</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>555</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>27750000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>556</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>557</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>27850000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>558</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>27900000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>559</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>27950000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>560</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>561</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>28050000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>562</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>28100000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>563</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>28150000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>564</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>28200000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>565</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>28250000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>566</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>567</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>28350000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>568</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>569</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>570</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>571</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>28550000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>572</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>28600000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>573</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>28650000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>574</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>28700000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>575</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>28750000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>576</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>577</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>28850000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>578</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>28900000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>579</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>28950000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>580</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>581</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>29050000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>582</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>583</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>29150000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>584</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>585</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>29250000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>586</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>29300000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>587</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>29350000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>588</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>589</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>29450000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>590</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>591</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>29550000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>592</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>29600000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>593</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>29650000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>594</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>595</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>29750000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>596</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A597">
         <v>597</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>29850000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A598">
         <v>598</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>29900000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A599">
         <v>599</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>29950000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>600</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>601</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>30050000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A602">
         <v>602</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A603">
         <v>603</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>30150000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A604">
         <v>604</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>30200000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A605">
         <v>605</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A606">
         <v>606</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>30300000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A607">
         <v>607</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>30350000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A608">
         <v>608</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A609">
         <v>609</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>30450000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A610">
         <v>610</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>30500000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A611">
         <v>611</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>30550000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A612">
         <v>612</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A613">
         <v>613</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>30650000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A614">
         <v>614</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>30700000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A615">
         <v>615</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>30750000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A616">
         <v>616</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A617">
         <v>617</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>30850000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A618">
         <v>618</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A619">
         <v>619</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>30950000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A620">
         <v>620</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>31000000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A621">
         <v>621</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>31050000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>622</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>31100000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>623</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>624</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>625</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>31250000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>626</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>31300000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>627</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>31350000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>628</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>31400000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>629</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>31450000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>630</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A631">
         <v>631</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>31550000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A632">
         <v>632</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>31600000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A633">
         <v>633</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>31650000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A634">
         <v>634</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>31700000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A635">
         <v>635</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>31750000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A636">
         <v>636</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>31800000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A637">
         <v>637</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>31850000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A638">
         <v>638</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>31900000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A639">
         <v>639</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>31950000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A640">
         <v>640</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A641">
         <v>641</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>32050000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A642">
         <v>642</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>32100000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A643">
         <v>643</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A644">
         <v>644</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>32200000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A645">
         <v>645</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>32250000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A646">
         <v>646</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>32300000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A647">
         <v>647</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>32350000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A648">
         <v>648</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>32400000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A649">
         <v>649</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>32450000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A650">
         <v>650</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A651">
         <v>651</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>32550000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A652">
         <v>652</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>32600000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A653">
         <v>653</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>32650000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A654">
         <v>654</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>32700000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A655">
         <v>655</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>32750000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A656">
         <v>656</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A657">
         <v>657</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A658">
         <v>658</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>32900000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A659">
         <v>659</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>32950000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A660">
         <v>660</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A661">
         <v>661</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A662">
         <v>662</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>33100000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A663">
         <v>663</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>33150000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A664">
         <v>664</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A665">
         <v>665</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A666">
         <v>666</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>33300000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A667">
         <v>667</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>33350000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A668">
         <v>668</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A669">
         <v>669</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>33450000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A670">
         <v>670</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>33500000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A671">
         <v>671</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A672">
         <v>672</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>33600000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A673">
         <v>673</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>33650000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A674">
         <v>674</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>33700000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A675">
         <v>675</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A676">
         <v>676</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>33800000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A677">
         <v>677</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>33850000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A678">
         <v>678</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>33900000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A679">
         <v>679</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>33950000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A680">
         <v>680</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A681">
         <v>681</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>34050000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A682">
         <v>682</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A683">
         <v>683</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>34150000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A684">
         <v>684</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A685">
         <v>685</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>34250000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A686">
         <v>686</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A687">
         <v>687</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>34350000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A688">
         <v>688</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>34400000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A689">
         <v>689</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>34450000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A690">
         <v>690</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A691">
         <v>691</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>34550000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A692">
         <v>692</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A693">
         <v>693</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>34650000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A694">
         <v>694</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>34700000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A695">
         <v>695</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>34750000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A696">
         <v>696</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>34800000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A697">
         <v>697</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A698">
         <v>698</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>34900000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A699">
         <v>699</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>34950000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A700">
         <v>700</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A701">
         <v>701</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A702">
         <v>702</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A703">
         <v>703</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>35150000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A704">
         <v>704</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>35200000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A705">
         <v>705</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A706">
         <v>706</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>35300000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A707">
         <v>707</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>35350000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A708">
         <v>708</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>35400000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A709">
         <v>709</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A710">
         <v>710</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>35500000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A711">
         <v>711</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>35550000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A712">
         <v>712</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>35600000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A713">
         <v>713</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>35650000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A714">
         <v>714</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>35700000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A715">
         <v>715</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>35750000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A716">
         <v>716</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>35800000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A717">
         <v>717</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>35850000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A718">
         <v>718</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>35900000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A719">
         <v>719</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>35950000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A720">
         <v>720</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A721">
         <v>721</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>36050000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A722">
         <v>722</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>36100000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A723">
         <v>723</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>36150000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A724">
         <v>724</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A725">
         <v>725</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A726">
         <v>726</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>36300000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A727">
         <v>727</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A728">
         <v>728</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>36400000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A729">
         <v>729</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>36450000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A730">
         <v>730</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A731">
         <v>731</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>36550000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A732">
         <v>732</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A733">
         <v>733</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A734">
         <v>734</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>36700000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A735">
         <v>735</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>36750000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A736">
         <v>736</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>36800000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A737">
         <v>737</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>36850000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A738">
         <v>738</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>36900000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A739">
         <v>739</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A740">
         <v>740</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A741">
         <v>741</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>37050000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A742">
         <v>742</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A743">
         <v>743</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>37150000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A744">
         <v>744</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>37200000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A745">
         <v>745</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>37250000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A746">
         <v>746</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>37300000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A747">
         <v>747</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>37350000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A748">
         <v>748</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>37400000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A749">
         <v>749</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>37450000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A750">
         <v>750</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A751">
         <v>751</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>37550000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A752">
         <v>752</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A753">
         <v>753</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>37650000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A754">
         <v>754</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A755">
         <v>755</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>37750000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A756">
         <v>756</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A757">
         <v>757</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>37850000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A758">
         <v>758</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A759">
         <v>759</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>37950000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A760">
         <v>760</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A761">
         <v>761</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>38050000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A762">
         <v>762</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>38100000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A763">
         <v>763</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>38150000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A764">
         <v>764</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A765">
         <v>765</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A766">
         <v>766</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A767">
         <v>767</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>38350000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A768">
         <v>768</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>38400000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A769">
         <v>769</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>38450000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A770">
         <v>770</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>38500000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A771">
         <v>771</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>38550000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A772">
         <v>772</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>38600000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A773">
         <v>773</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>38650000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A774">
         <v>774</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>38700000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A775">
         <v>775</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>38750000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A776">
         <v>776</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>38800000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A777">
         <v>777</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>38850000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A778">
         <v>778</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A779">
         <v>779</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>38950000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A780">
         <v>780</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>39000000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A781">
         <v>781</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>39050000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A782">
         <v>782</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>39100000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A783">
         <v>783</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>39150000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A784">
         <v>784</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>39200000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A785">
         <v>785</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A786">
         <v>786</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>39300000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A787">
         <v>787</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>39350000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A788">
         <v>788</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A789">
         <v>789</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>39450000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A790">
         <v>790</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>39500000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A791">
         <v>791</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>39550000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A792">
         <v>792</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A793">
         <v>793</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>39650000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A794">
         <v>794</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A795">
         <v>795</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>39750000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A796">
         <v>796</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>39800000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A797">
         <v>797</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>39850000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A798">
         <v>798</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>39900000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A799">
         <v>799</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>39950000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A800">
         <v>800</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A801">
         <v>801</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>40050000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A802">
         <v>802</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>40100000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A803">
         <v>803</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>40150000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A804">
         <v>804</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>40200000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A805">
         <v>805</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>40250000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A806">
         <v>806</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>40300000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A807">
         <v>807</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>40350000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A808">
         <v>808</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A809">
         <v>809</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>40450000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A810">
         <v>810</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A811">
         <v>811</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>40550000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A812">
         <v>812</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>40600000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A813">
         <v>813</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>40650000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A814">
         <v>814</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A815">
         <v>815</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>40750000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A816">
         <v>816</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>40800000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A817">
         <v>817</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>40850000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A818">
         <v>818</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>40900000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A819">
         <v>819</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>40950000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A820">
         <v>820</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A821">
         <v>821</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>41050000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A822">
         <v>822</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>41100000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A823">
         <v>823</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>41150000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A824">
         <v>824</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>41200000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A825">
         <v>825</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>41250000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A826">
         <v>826</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>41300000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A827">
         <v>827</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>41350000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A828">
         <v>828</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A829">
         <v>829</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>41450000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A830">
         <v>830</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>41500000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A831">
         <v>831</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>41550000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A832">
         <v>832</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>41600000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A833">
         <v>833</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A834">
         <v>834</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>41700000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A835">
         <v>835</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>41750000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A836">
         <v>836</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>41800000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A837">
         <v>837</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>41850000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A838">
         <v>838</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>41900000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A839">
         <v>839</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>41950000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A840">
         <v>840</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A841">
         <v>841</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>42050000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A842">
         <v>842</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>42100000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A843">
         <v>843</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>42150000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A844">
         <v>844</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A845">
         <v>845</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>42250000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A846">
         <v>846</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>42300000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A847">
         <v>847</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>42350000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A848">
         <v>848</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A849">
         <v>849</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>42450000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A850">
         <v>850</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A851">
         <v>851</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>42550000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A852">
         <v>852</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>42600000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A853">
         <v>853</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>42650000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A854">
         <v>854</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>42700000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A855">
         <v>855</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>42750000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A856">
         <v>856</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>42800000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A857">
         <v>857</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>42850000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A858">
         <v>858</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A859">
         <v>859</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>42950000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A860">
         <v>860</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A861">
         <v>861</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>43050000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A862">
         <v>862</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>43100000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A863">
         <v>863</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>43150000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A864">
         <v>864</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>43200000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A865">
         <v>865</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>43250000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A866">
         <v>866</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>43300000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A867">
         <v>867</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>43350000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A868">
         <v>868</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>43400000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A869">
         <v>869</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>43450000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A870">
         <v>870</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>43500000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A871">
         <v>871</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>43550000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A872">
         <v>872</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>43600000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A873">
         <v>873</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>43650000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A874">
         <v>874</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>43700000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A875">
         <v>875</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A876">
         <v>876</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A877">
         <v>877</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>43850000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A878">
         <v>878</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>43900000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A879">
         <v>879</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>43950000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A880">
         <v>880</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A881">
         <v>881</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>44050000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A882">
         <v>882</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>44100000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A883">
         <v>883</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>44150000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A884">
         <v>884</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A885">
         <v>885</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>44250000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A886">
         <v>886</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>44300000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A887">
         <v>887</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>44350000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A888">
         <v>888</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>44400000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A889">
         <v>889</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>44450000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A890">
         <v>890</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>44500000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A891">
         <v>891</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>44550000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A892">
         <v>892</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>44600000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A893">
         <v>893</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>44650000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A894">
         <v>894</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>44700000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A895">
         <v>895</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>44750000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A896">
         <v>896</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A897">
         <v>897</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>44850000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A898">
         <v>898</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>44900000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A899">
         <v>899</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>44950000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A900">
         <v>900</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A901">
         <v>901</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>45050000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A902">
         <v>902</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>45100000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A903">
         <v>903</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>45150000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A904">
         <v>904</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>45200000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A905">
         <v>905</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>45250000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A906">
         <v>906</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>45300000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A907">
         <v>907</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>45350000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A908">
         <v>908</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>45400000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A909">
         <v>909</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>45450000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A910">
         <v>910</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>45500000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A911">
         <v>911</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>45550000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A912">
         <v>912</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>45600000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A913">
         <v>913</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>45650000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A914">
         <v>914</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A915">
         <v>915</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>45750000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A916">
         <v>916</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>45800000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A917">
         <v>917</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>45850000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A918">
         <v>918</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>45900000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A919">
         <v>919</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>45950000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A920">
         <v>920</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A921">
         <v>921</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A922">
         <v>922</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>46100000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A923">
         <v>923</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>46150000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A924">
         <v>924</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A925">
         <v>925</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>46250000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A926">
         <v>926</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>46300000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A927">
         <v>927</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>46350000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A928">
         <v>928</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>46400000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A929">
         <v>929</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>46450000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A930">
         <v>930</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A931">
         <v>931</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>46550000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A932">
         <v>932</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>46600000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A933">
         <v>933</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>46650000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A934">
         <v>934</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A935">
         <v>935</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>46750000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A936">
         <v>936</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>46800000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A937">
         <v>937</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>46850000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A938">
         <v>938</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>46900000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A939">
         <v>939</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>46950000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A940">
         <v>940</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A941">
         <v>941</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>47050000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A942">
         <v>942</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>47100000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A943">
         <v>943</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>47150000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A944">
         <v>944</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A945">
         <v>945</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>47250000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A946">
         <v>946</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>47300000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A947">
         <v>947</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>47350000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A948">
         <v>948</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>47400000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A949">
         <v>949</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>47450000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A950">
         <v>950</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A951">
         <v>951</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>47550000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A952">
         <v>952</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A953">
         <v>953</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>47650000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A954">
         <v>954</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>47700000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A955">
         <v>955</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>47750000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A956">
         <v>956</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>47800000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A957">
         <v>957</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>47850000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A958">
         <v>958</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A959">
         <v>959</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>47950000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A960">
         <v>960</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A961">
         <v>961</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>48050000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A962">
         <v>962</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>48100000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A963">
         <v>963</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>48150000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A964">
         <v>964</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>48200000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A965">
         <v>965</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>48250000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A966">
         <v>966</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A967">
         <v>967</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>48350000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A968">
         <v>968</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>48400000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A969">
         <v>969</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>48450000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A970">
         <v>970</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>48500000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A971">
         <v>971</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>48550000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A972">
         <v>972</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>48600000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A973">
         <v>973</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>48650000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A974">
         <v>974</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A975">
         <v>975</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A976">
         <v>976</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>48800000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A977">
         <v>977</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>48850000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A978">
         <v>978</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>48900000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A979">
         <v>979</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>48950000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A980">
         <v>980</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A981">
         <v>981</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A982">
         <v>982</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>49100000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A983">
         <v>983</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>49150000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A984">
         <v>984</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>49200000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A985">
         <v>985</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>49250000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A986">
         <v>986</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>49300000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A987">
         <v>987</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>49350000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A988">
         <v>988</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>49400000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A989">
         <v>989</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>49450000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A990">
         <v>990</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A991">
         <v>991</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>49550000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A992">
         <v>992</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>49600000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A993">
         <v>993</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>49650000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A994">
         <v>994</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>49700000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A995">
         <v>995</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>49750000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A996">
         <v>996</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>49800000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A997">
         <v>997</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A998">
         <v>998</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>49900000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A999">
         <v>999</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>49950000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1000">
         <v>1000</v>
       </c>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E7B777-1386-4953-AEE6-1046256A60AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA4D34-6EDA-4F69-8E23-BAB6E5C4482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6585" yWindow="3420" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,13 @@
   </si>
   <si>
     <t>테스트용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul3</t>
+  </si>
+  <si>
+    <t>방어도무시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,24 +460,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.08203125" customWidth="1"/>
-    <col min="7" max="7" width="26.58203125" customWidth="1"/>
-    <col min="8" max="8" width="26.08203125" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,7 +535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -554,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -580,6 +587,35 @@
         <v>350</v>
       </c>
       <c r="I4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
         <v>1000</v>
       </c>
     </row>
@@ -598,12 +634,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -616,7 +652,7 @@
         <v>25025000000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -625,7 +661,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -634,7 +670,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -643,7 +679,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -652,7 +688,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -661,7 +697,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -670,7 +706,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -679,7 +715,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -688,7 +724,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -697,7 +733,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -706,7 +742,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -715,7 +751,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -724,7 +760,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -733,7 +769,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -742,7 +778,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -751,7 +787,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -760,7 +796,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -769,7 +805,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -778,7 +814,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -787,7 +823,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -796,7 +832,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -805,7 +841,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -814,7 +850,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -823,7 +859,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -832,7 +868,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -841,7 +877,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -850,7 +886,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -859,7 +895,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -868,7 +904,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -877,7 +913,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -886,7 +922,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -895,7 +931,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -904,7 +940,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -913,7 +949,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -922,7 +958,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -931,7 +967,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -940,7 +976,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -949,7 +985,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -958,7 +994,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -967,7 +1003,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -976,7 +1012,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -985,7 +1021,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -994,7 +1030,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1003,7 +1039,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1012,7 +1048,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1021,7 +1057,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1030,7 +1066,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1039,7 +1075,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1048,7 +1084,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1057,7 +1093,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1066,7 +1102,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1075,7 +1111,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1084,7 +1120,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1093,7 +1129,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1102,7 +1138,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1111,7 +1147,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1120,7 +1156,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1129,7 +1165,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1138,7 +1174,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1147,7 +1183,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1156,7 +1192,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1165,7 +1201,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1174,7 +1210,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1183,7 +1219,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1192,7 +1228,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1201,7 +1237,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1210,7 +1246,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1219,7 +1255,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1228,7 +1264,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1237,7 +1273,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1246,7 +1282,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1255,7 +1291,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1264,7 +1300,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1273,7 +1309,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1282,7 +1318,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1291,7 +1327,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1300,7 +1336,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1309,7 +1345,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1318,7 +1354,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1327,7 +1363,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1336,7 +1372,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1345,7 +1381,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1354,7 +1390,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1363,7 +1399,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1372,7 +1408,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1381,7 +1417,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1390,7 +1426,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1399,7 +1435,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1408,7 +1444,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1417,7 +1453,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1426,7 +1462,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1435,7 +1471,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1444,7 +1480,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1453,7 +1489,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1462,7 +1498,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -1471,7 +1507,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -1480,7 +1516,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -1489,7 +1525,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -1498,7 +1534,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -1507,7 +1543,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -1516,7 +1552,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -1525,7 +1561,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -1534,7 +1570,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -1543,7 +1579,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -1552,7 +1588,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1561,7 +1597,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -1570,7 +1606,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -1579,7 +1615,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -1588,7 +1624,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -1597,7 +1633,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -1606,7 +1642,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -1615,7 +1651,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -1624,7 +1660,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1633,7 +1669,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1642,7 +1678,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1651,7 +1687,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1660,7 +1696,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1669,7 +1705,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1678,7 +1714,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1687,7 +1723,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1696,7 +1732,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1705,7 +1741,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1714,7 +1750,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1723,7 +1759,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1732,7 +1768,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1741,7 +1777,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1750,7 +1786,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1759,7 +1795,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1768,7 +1804,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1777,7 +1813,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1786,7 +1822,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1795,7 +1831,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1804,7 +1840,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1813,7 +1849,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -1822,7 +1858,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -1831,7 +1867,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -1840,7 +1876,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -1849,7 +1885,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -1858,7 +1894,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -1867,7 +1903,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -1876,7 +1912,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -1885,7 +1921,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -1894,7 +1930,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -1903,7 +1939,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -1912,7 +1948,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -1921,7 +1957,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -1930,7 +1966,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -1939,7 +1975,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -1948,7 +1984,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -1957,7 +1993,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -1966,7 +2002,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -1975,7 +2011,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -1984,7 +2020,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -1993,7 +2029,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2002,7 +2038,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2011,7 +2047,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2020,7 +2056,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2029,7 +2065,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2038,7 +2074,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2047,7 +2083,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2056,7 +2092,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2065,7 +2101,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2074,7 +2110,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2083,7 +2119,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2092,7 +2128,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2101,7 +2137,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2110,7 +2146,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2119,7 +2155,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2128,7 +2164,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2137,7 +2173,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2146,7 +2182,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2155,7 +2191,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2164,7 +2200,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2173,7 +2209,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2182,7 +2218,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -2191,7 +2227,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -2200,7 +2236,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -2209,7 +2245,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -2218,7 +2254,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -2227,7 +2263,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -2236,7 +2272,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -2245,7 +2281,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -2254,7 +2290,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -2263,7 +2299,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -2272,7 +2308,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -2281,7 +2317,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -2290,7 +2326,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -2299,7 +2335,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -2308,7 +2344,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -2317,7 +2353,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -2326,7 +2362,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -2335,7 +2371,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -2344,7 +2380,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -2353,7 +2389,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -2362,7 +2398,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -2371,7 +2407,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -2380,7 +2416,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -2389,7 +2425,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -2398,7 +2434,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -2407,7 +2443,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -2416,7 +2452,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>202</v>
       </c>
@@ -2425,7 +2461,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>203</v>
       </c>
@@ -2434,7 +2470,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>204</v>
       </c>
@@ -2443,7 +2479,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>205</v>
       </c>
@@ -2452,7 +2488,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>206</v>
       </c>
@@ -2461,7 +2497,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>207</v>
       </c>
@@ -2470,7 +2506,7 @@
         <v>10350000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>208</v>
       </c>
@@ -2479,7 +2515,7 @@
         <v>10400000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>209</v>
       </c>
@@ -2488,7 +2524,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>210</v>
       </c>
@@ -2497,7 +2533,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>211</v>
       </c>
@@ -2506,7 +2542,7 @@
         <v>10550000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>212</v>
       </c>
@@ -2515,7 +2551,7 @@
         <v>10600000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>213</v>
       </c>
@@ -2524,7 +2560,7 @@
         <v>10650000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>214</v>
       </c>
@@ -2533,7 +2569,7 @@
         <v>10700000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>215</v>
       </c>
@@ -2542,7 +2578,7 @@
         <v>10750000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>216</v>
       </c>
@@ -2551,7 +2587,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>217</v>
       </c>
@@ -2560,7 +2596,7 @@
         <v>10850000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>218</v>
       </c>
@@ -2569,7 +2605,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>219</v>
       </c>
@@ -2578,7 +2614,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>220</v>
       </c>
@@ -2587,7 +2623,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>221</v>
       </c>
@@ -2596,7 +2632,7 @@
         <v>11050000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>222</v>
       </c>
@@ -2605,7 +2641,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>223</v>
       </c>
@@ -2614,7 +2650,7 @@
         <v>11150000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>224</v>
       </c>
@@ -2623,7 +2659,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>225</v>
       </c>
@@ -2632,7 +2668,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>226</v>
       </c>
@@ -2641,7 +2677,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>227</v>
       </c>
@@ -2650,7 +2686,7 @@
         <v>11350000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>228</v>
       </c>
@@ -2659,7 +2695,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>229</v>
       </c>
@@ -2668,7 +2704,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>230</v>
       </c>
@@ -2677,7 +2713,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>231</v>
       </c>
@@ -2686,7 +2722,7 @@
         <v>11550000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>232</v>
       </c>
@@ -2695,7 +2731,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>233</v>
       </c>
@@ -2704,7 +2740,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>234</v>
       </c>
@@ -2713,7 +2749,7 @@
         <v>11700000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>235</v>
       </c>
@@ -2722,7 +2758,7 @@
         <v>11750000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>236</v>
       </c>
@@ -2731,7 +2767,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>237</v>
       </c>
@@ -2740,7 +2776,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>238</v>
       </c>
@@ -2749,7 +2785,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>239</v>
       </c>
@@ -2758,7 +2794,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>240</v>
       </c>
@@ -2767,7 +2803,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>241</v>
       </c>
@@ -2776,7 +2812,7 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>242</v>
       </c>
@@ -2785,7 +2821,7 @@
         <v>12100000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>243</v>
       </c>
@@ -2794,7 +2830,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>244</v>
       </c>
@@ -2803,7 +2839,7 @@
         <v>12200000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>245</v>
       </c>
@@ -2812,7 +2848,7 @@
         <v>12250000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>246</v>
       </c>
@@ -2821,7 +2857,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>247</v>
       </c>
@@ -2830,7 +2866,7 @@
         <v>12350000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>248</v>
       </c>
@@ -2839,7 +2875,7 @@
         <v>12400000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>249</v>
       </c>
@@ -2848,7 +2884,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>250</v>
       </c>
@@ -2857,7 +2893,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>251</v>
       </c>
@@ -2866,7 +2902,7 @@
         <v>12550000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>252</v>
       </c>
@@ -2875,7 +2911,7 @@
         <v>12600000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>253</v>
       </c>
@@ -2884,7 +2920,7 @@
         <v>12650000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>254</v>
       </c>
@@ -2893,7 +2929,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>255</v>
       </c>
@@ -2902,7 +2938,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>256</v>
       </c>
@@ -2911,7 +2947,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>257</v>
       </c>
@@ -2920,7 +2956,7 @@
         <v>12850000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>258</v>
       </c>
@@ -2929,7 +2965,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>259</v>
       </c>
@@ -2938,7 +2974,7 @@
         <v>12950000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>260</v>
       </c>
@@ -2947,7 +2983,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>261</v>
       </c>
@@ -2956,7 +2992,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>262</v>
       </c>
@@ -2965,7 +3001,7 @@
         <v>13100000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>263</v>
       </c>
@@ -2974,7 +3010,7 @@
         <v>13150000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>264</v>
       </c>
@@ -2983,7 +3019,7 @@
         <v>13200000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>265</v>
       </c>
@@ -2992,7 +3028,7 @@
         <v>13250000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>266</v>
       </c>
@@ -3001,7 +3037,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>267</v>
       </c>
@@ -3010,7 +3046,7 @@
         <v>13350000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>268</v>
       </c>
@@ -3019,7 +3055,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>269</v>
       </c>
@@ -3028,7 +3064,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>270</v>
       </c>
@@ -3037,7 +3073,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>271</v>
       </c>
@@ -3046,7 +3082,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>272</v>
       </c>
@@ -3055,7 +3091,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>273</v>
       </c>
@@ -3064,7 +3100,7 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>274</v>
       </c>
@@ -3073,7 +3109,7 @@
         <v>13700000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>275</v>
       </c>
@@ -3082,7 +3118,7 @@
         <v>13750000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>276</v>
       </c>
@@ -3091,7 +3127,7 @@
         <v>13800000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>277</v>
       </c>
@@ -3100,7 +3136,7 @@
         <v>13850000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>278</v>
       </c>
@@ -3109,7 +3145,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>279</v>
       </c>
@@ -3118,7 +3154,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>280</v>
       </c>
@@ -3127,7 +3163,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>281</v>
       </c>
@@ -3136,7 +3172,7 @@
         <v>14050000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>282</v>
       </c>
@@ -3145,7 +3181,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>283</v>
       </c>
@@ -3154,7 +3190,7 @@
         <v>14150000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>284</v>
       </c>
@@ -3163,7 +3199,7 @@
         <v>14200000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>285</v>
       </c>
@@ -3172,7 +3208,7 @@
         <v>14250000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>286</v>
       </c>
@@ -3181,7 +3217,7 @@
         <v>14300000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>287</v>
       </c>
@@ -3190,7 +3226,7 @@
         <v>14350000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>288</v>
       </c>
@@ -3199,7 +3235,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>289</v>
       </c>
@@ -3208,7 +3244,7 @@
         <v>14450000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>290</v>
       </c>
@@ -3217,7 +3253,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>291</v>
       </c>
@@ -3226,7 +3262,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>292</v>
       </c>
@@ -3235,7 +3271,7 @@
         <v>14600000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>293</v>
       </c>
@@ -3244,7 +3280,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>294</v>
       </c>
@@ -3253,7 +3289,7 @@
         <v>14700000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>295</v>
       </c>
@@ -3262,7 +3298,7 @@
         <v>14750000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>296</v>
       </c>
@@ -3271,7 +3307,7 @@
         <v>14800000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>297</v>
       </c>
@@ -3280,7 +3316,7 @@
         <v>14850000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>298</v>
       </c>
@@ -3289,7 +3325,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>299</v>
       </c>
@@ -3298,7 +3334,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>300</v>
       </c>
@@ -3307,7 +3343,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>301</v>
       </c>
@@ -3316,7 +3352,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>302</v>
       </c>
@@ -3325,7 +3361,7 @@
         <v>15100000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>303</v>
       </c>
@@ -3334,7 +3370,7 @@
         <v>15150000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>304</v>
       </c>
@@ -3343,7 +3379,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>305</v>
       </c>
@@ -3352,7 +3388,7 @@
         <v>15250000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>306</v>
       </c>
@@ -3361,7 +3397,7 @@
         <v>15300000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>307</v>
       </c>
@@ -3370,7 +3406,7 @@
         <v>15350000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>308</v>
       </c>
@@ -3379,7 +3415,7 @@
         <v>15400000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>309</v>
       </c>
@@ -3388,7 +3424,7 @@
         <v>15450000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>310</v>
       </c>
@@ -3397,7 +3433,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>311</v>
       </c>
@@ -3406,7 +3442,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>312</v>
       </c>
@@ -3415,7 +3451,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>313</v>
       </c>
@@ -3424,7 +3460,7 @@
         <v>15650000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>314</v>
       </c>
@@ -3433,7 +3469,7 @@
         <v>15700000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>315</v>
       </c>
@@ -3442,7 +3478,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>316</v>
       </c>
@@ -3451,7 +3487,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>317</v>
       </c>
@@ -3460,7 +3496,7 @@
         <v>15850000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>318</v>
       </c>
@@ -3469,7 +3505,7 @@
         <v>15900000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>319</v>
       </c>
@@ -3478,7 +3514,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>320</v>
       </c>
@@ -3487,7 +3523,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>321</v>
       </c>
@@ -3496,7 +3532,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>322</v>
       </c>
@@ -3505,7 +3541,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>323</v>
       </c>
@@ -3514,7 +3550,7 @@
         <v>16150000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>324</v>
       </c>
@@ -3523,7 +3559,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>325</v>
       </c>
@@ -3532,7 +3568,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>326</v>
       </c>
@@ -3541,7 +3577,7 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>327</v>
       </c>
@@ -3550,7 +3586,7 @@
         <v>16350000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>328</v>
       </c>
@@ -3559,7 +3595,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>329</v>
       </c>
@@ -3568,7 +3604,7 @@
         <v>16450000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>330</v>
       </c>
@@ -3577,7 +3613,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>331</v>
       </c>
@@ -3586,7 +3622,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>332</v>
       </c>
@@ -3595,7 +3631,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>333</v>
       </c>
@@ -3604,7 +3640,7 @@
         <v>16650000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>334</v>
       </c>
@@ -3613,7 +3649,7 @@
         <v>16700000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>335</v>
       </c>
@@ -3622,7 +3658,7 @@
         <v>16750000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>336</v>
       </c>
@@ -3631,7 +3667,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>337</v>
       </c>
@@ -3640,7 +3676,7 @@
         <v>16850000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>338</v>
       </c>
@@ -3649,7 +3685,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>339</v>
       </c>
@@ -3658,7 +3694,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>340</v>
       </c>
@@ -3667,7 +3703,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>341</v>
       </c>
@@ -3676,7 +3712,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>342</v>
       </c>
@@ -3685,7 +3721,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>343</v>
       </c>
@@ -3694,7 +3730,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>344</v>
       </c>
@@ -3703,7 +3739,7 @@
         <v>17200000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>345</v>
       </c>
@@ -3712,7 +3748,7 @@
         <v>17250000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>346</v>
       </c>
@@ -3721,7 +3757,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>347</v>
       </c>
@@ -3730,7 +3766,7 @@
         <v>17350000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>348</v>
       </c>
@@ -3739,7 +3775,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>349</v>
       </c>
@@ -3748,7 +3784,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>350</v>
       </c>
@@ -3757,7 +3793,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>351</v>
       </c>
@@ -3766,7 +3802,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>352</v>
       </c>
@@ -3775,7 +3811,7 @@
         <v>17600000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>353</v>
       </c>
@@ -3784,7 +3820,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>354</v>
       </c>
@@ -3793,7 +3829,7 @@
         <v>17700000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>355</v>
       </c>
@@ -3802,7 +3838,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>356</v>
       </c>
@@ -3811,7 +3847,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>357</v>
       </c>
@@ -3820,7 +3856,7 @@
         <v>17850000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>358</v>
       </c>
@@ -3829,7 +3865,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>359</v>
       </c>
@@ -3838,7 +3874,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>360</v>
       </c>
@@ -3847,7 +3883,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>361</v>
       </c>
@@ -3856,7 +3892,7 @@
         <v>18050000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>362</v>
       </c>
@@ -3865,7 +3901,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>363</v>
       </c>
@@ -3874,7 +3910,7 @@
         <v>18150000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>364</v>
       </c>
@@ -3883,7 +3919,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>365</v>
       </c>
@@ -3892,7 +3928,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>366</v>
       </c>
@@ -3901,7 +3937,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>367</v>
       </c>
@@ -3910,7 +3946,7 @@
         <v>18350000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>368</v>
       </c>
@@ -3919,7 +3955,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>369</v>
       </c>
@@ -3928,7 +3964,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>370</v>
       </c>
@@ -3937,7 +3973,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>371</v>
       </c>
@@ -3946,7 +3982,7 @@
         <v>18550000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>372</v>
       </c>
@@ -3955,7 +3991,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>373</v>
       </c>
@@ -3964,7 +4000,7 @@
         <v>18650000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>374</v>
       </c>
@@ -3973,7 +4009,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>375</v>
       </c>
@@ -3982,7 +4018,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>376</v>
       </c>
@@ -3991,7 +4027,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>377</v>
       </c>
@@ -4000,7 +4036,7 @@
         <v>18850000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>378</v>
       </c>
@@ -4009,7 +4045,7 @@
         <v>18900000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>379</v>
       </c>
@@ -4018,7 +4054,7 @@
         <v>18950000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>380</v>
       </c>
@@ -4027,7 +4063,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>381</v>
       </c>
@@ -4036,7 +4072,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>382</v>
       </c>
@@ -4045,7 +4081,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>383</v>
       </c>
@@ -4054,7 +4090,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>384</v>
       </c>
@@ -4063,7 +4099,7 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>385</v>
       </c>
@@ -4072,7 +4108,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>386</v>
       </c>
@@ -4081,7 +4117,7 @@
         <v>19300000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>387</v>
       </c>
@@ -4090,7 +4126,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>388</v>
       </c>
@@ -4099,7 +4135,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>389</v>
       </c>
@@ -4108,7 +4144,7 @@
         <v>19450000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>390</v>
       </c>
@@ -4117,7 +4153,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>391</v>
       </c>
@@ -4126,7 +4162,7 @@
         <v>19550000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>392</v>
       </c>
@@ -4135,7 +4171,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>393</v>
       </c>
@@ -4144,7 +4180,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>394</v>
       </c>
@@ -4153,7 +4189,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>395</v>
       </c>
@@ -4162,7 +4198,7 @@
         <v>19750000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>396</v>
       </c>
@@ -4171,7 +4207,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>397</v>
       </c>
@@ -4180,7 +4216,7 @@
         <v>19850000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>398</v>
       </c>
@@ -4189,7 +4225,7 @@
         <v>19900000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>399</v>
       </c>
@@ -4198,7 +4234,7 @@
         <v>19950000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>400</v>
       </c>
@@ -4207,7 +4243,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>401</v>
       </c>
@@ -4216,7 +4252,7 @@
         <v>20050000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>402</v>
       </c>
@@ -4225,7 +4261,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>403</v>
       </c>
@@ -4234,7 +4270,7 @@
         <v>20150000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>404</v>
       </c>
@@ -4243,7 +4279,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>405</v>
       </c>
@@ -4252,7 +4288,7 @@
         <v>20250000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>406</v>
       </c>
@@ -4261,7 +4297,7 @@
         <v>20300000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>407</v>
       </c>
@@ -4270,7 +4306,7 @@
         <v>20350000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>408</v>
       </c>
@@ -4279,7 +4315,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>409</v>
       </c>
@@ -4288,7 +4324,7 @@
         <v>20450000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>410</v>
       </c>
@@ -4297,7 +4333,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>411</v>
       </c>
@@ -4306,7 +4342,7 @@
         <v>20550000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>412</v>
       </c>
@@ -4315,7 +4351,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>413</v>
       </c>
@@ -4324,7 +4360,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>414</v>
       </c>
@@ -4333,7 +4369,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>415</v>
       </c>
@@ -4342,7 +4378,7 @@
         <v>20750000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>416</v>
       </c>
@@ -4351,7 +4387,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>417</v>
       </c>
@@ -4360,7 +4396,7 @@
         <v>20850000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>418</v>
       </c>
@@ -4369,7 +4405,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>419</v>
       </c>
@@ -4378,7 +4414,7 @@
         <v>20950000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>420</v>
       </c>
@@ -4387,7 +4423,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>421</v>
       </c>
@@ -4396,7 +4432,7 @@
         <v>21050000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>422</v>
       </c>
@@ -4405,7 +4441,7 @@
         <v>21100000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>423</v>
       </c>
@@ -4414,7 +4450,7 @@
         <v>21150000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>424</v>
       </c>
@@ -4423,7 +4459,7 @@
         <v>21200000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>425</v>
       </c>
@@ -4432,7 +4468,7 @@
         <v>21250000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>426</v>
       </c>
@@ -4441,7 +4477,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>427</v>
       </c>
@@ -4450,7 +4486,7 @@
         <v>21350000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>428</v>
       </c>
@@ -4459,7 +4495,7 @@
         <v>21400000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>429</v>
       </c>
@@ -4468,7 +4504,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>430</v>
       </c>
@@ -4477,7 +4513,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>431</v>
       </c>
@@ -4486,7 +4522,7 @@
         <v>21550000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>432</v>
       </c>
@@ -4495,7 +4531,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>433</v>
       </c>
@@ -4504,7 +4540,7 @@
         <v>21650000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>434</v>
       </c>
@@ -4513,7 +4549,7 @@
         <v>21700000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>435</v>
       </c>
@@ -4522,7 +4558,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>436</v>
       </c>
@@ -4531,7 +4567,7 @@
         <v>21800000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>437</v>
       </c>
@@ -4540,7 +4576,7 @@
         <v>21850000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>438</v>
       </c>
@@ -4549,7 +4585,7 @@
         <v>21900000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>439</v>
       </c>
@@ -4558,7 +4594,7 @@
         <v>21950000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>440</v>
       </c>
@@ -4567,7 +4603,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>441</v>
       </c>
@@ -4576,7 +4612,7 @@
         <v>22050000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>442</v>
       </c>
@@ -4585,7 +4621,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>443</v>
       </c>
@@ -4594,7 +4630,7 @@
         <v>22150000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>444</v>
       </c>
@@ -4603,7 +4639,7 @@
         <v>22200000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>445</v>
       </c>
@@ -4612,7 +4648,7 @@
         <v>22250000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>446</v>
       </c>
@@ -4621,7 +4657,7 @@
         <v>22300000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>447</v>
       </c>
@@ -4630,7 +4666,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>448</v>
       </c>
@@ -4639,7 +4675,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>449</v>
       </c>
@@ -4648,7 +4684,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>450</v>
       </c>
@@ -4657,7 +4693,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>451</v>
       </c>
@@ -4666,7 +4702,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>452</v>
       </c>
@@ -4675,7 +4711,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>453</v>
       </c>
@@ -4684,7 +4720,7 @@
         <v>22650000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>454</v>
       </c>
@@ -4693,7 +4729,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>455</v>
       </c>
@@ -4702,7 +4738,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>456</v>
       </c>
@@ -4711,7 +4747,7 @@
         <v>22800000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>457</v>
       </c>
@@ -4720,7 +4756,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>458</v>
       </c>
@@ -4729,7 +4765,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>459</v>
       </c>
@@ -4738,7 +4774,7 @@
         <v>22950000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>460</v>
       </c>
@@ -4747,7 +4783,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>461</v>
       </c>
@@ -4756,7 +4792,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>462</v>
       </c>
@@ -4765,7 +4801,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>463</v>
       </c>
@@ -4774,7 +4810,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>464</v>
       </c>
@@ -4783,7 +4819,7 @@
         <v>23200000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>465</v>
       </c>
@@ -4792,7 +4828,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>466</v>
       </c>
@@ -4801,7 +4837,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>467</v>
       </c>
@@ -4810,7 +4846,7 @@
         <v>23350000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>468</v>
       </c>
@@ -4819,7 +4855,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>469</v>
       </c>
@@ -4828,7 +4864,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>470</v>
       </c>
@@ -4837,7 +4873,7 @@
         <v>23500000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>471</v>
       </c>
@@ -4846,7 +4882,7 @@
         <v>23550000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>472</v>
       </c>
@@ -4855,7 +4891,7 @@
         <v>23600000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>473</v>
       </c>
@@ -4864,7 +4900,7 @@
         <v>23650000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>474</v>
       </c>
@@ -4873,7 +4909,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>475</v>
       </c>
@@ -4882,7 +4918,7 @@
         <v>23750000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>476</v>
       </c>
@@ -4891,7 +4927,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>477</v>
       </c>
@@ -4900,7 +4936,7 @@
         <v>23850000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>478</v>
       </c>
@@ -4909,7 +4945,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>479</v>
       </c>
@@ -4918,7 +4954,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>480</v>
       </c>
@@ -4927,7 +4963,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>481</v>
       </c>
@@ -4936,7 +4972,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>482</v>
       </c>
@@ -4945,7 +4981,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>483</v>
       </c>
@@ -4954,7 +4990,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>484</v>
       </c>
@@ -4963,7 +4999,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>485</v>
       </c>
@@ -4972,7 +5008,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>486</v>
       </c>
@@ -4981,7 +5017,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>487</v>
       </c>
@@ -4990,7 +5026,7 @@
         <v>24350000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>488</v>
       </c>
@@ -4999,7 +5035,7 @@
         <v>24400000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>489</v>
       </c>
@@ -5008,7 +5044,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>490</v>
       </c>
@@ -5017,7 +5053,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>491</v>
       </c>
@@ -5026,7 +5062,7 @@
         <v>24550000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>492</v>
       </c>
@@ -5035,7 +5071,7 @@
         <v>24600000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>493</v>
       </c>
@@ -5044,7 +5080,7 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>494</v>
       </c>
@@ -5053,7 +5089,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>495</v>
       </c>
@@ -5062,7 +5098,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>496</v>
       </c>
@@ -5071,7 +5107,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>497</v>
       </c>
@@ -5080,7 +5116,7 @@
         <v>24850000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>498</v>
       </c>
@@ -5089,7 +5125,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>499</v>
       </c>
@@ -5098,7 +5134,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>500</v>
       </c>
@@ -5107,7 +5143,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>501</v>
       </c>
@@ -5116,7 +5152,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>502</v>
       </c>
@@ -5125,7 +5161,7 @@
         <v>25100000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>503</v>
       </c>
@@ -5134,7 +5170,7 @@
         <v>25150000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>504</v>
       </c>
@@ -5143,7 +5179,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>505</v>
       </c>
@@ -5152,7 +5188,7 @@
         <v>25250000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>506</v>
       </c>
@@ -5161,7 +5197,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>507</v>
       </c>
@@ -5170,7 +5206,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>508</v>
       </c>
@@ -5179,7 +5215,7 @@
         <v>25400000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>509</v>
       </c>
@@ -5188,7 +5224,7 @@
         <v>25450000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>510</v>
       </c>
@@ -5197,7 +5233,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>511</v>
       </c>
@@ -5206,7 +5242,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>512</v>
       </c>
@@ -5215,7 +5251,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>513</v>
       </c>
@@ -5224,7 +5260,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>514</v>
       </c>
@@ -5233,7 +5269,7 @@
         <v>25700000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>515</v>
       </c>
@@ -5242,7 +5278,7 @@
         <v>25750000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>516</v>
       </c>
@@ -5251,7 +5287,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>517</v>
       </c>
@@ -5260,7 +5296,7 @@
         <v>25850000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>518</v>
       </c>
@@ -5269,7 +5305,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>519</v>
       </c>
@@ -5278,7 +5314,7 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>520</v>
       </c>
@@ -5287,7 +5323,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>521</v>
       </c>
@@ -5296,7 +5332,7 @@
         <v>26050000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>522</v>
       </c>
@@ -5305,7 +5341,7 @@
         <v>26100000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>523</v>
       </c>
@@ -5314,7 +5350,7 @@
         <v>26150000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>524</v>
       </c>
@@ -5323,7 +5359,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>525</v>
       </c>
@@ -5332,7 +5368,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>526</v>
       </c>
@@ -5341,7 +5377,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>527</v>
       </c>
@@ -5350,7 +5386,7 @@
         <v>26350000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>528</v>
       </c>
@@ -5359,7 +5395,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>529</v>
       </c>
@@ -5368,7 +5404,7 @@
         <v>26450000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>530</v>
       </c>
@@ -5377,7 +5413,7 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>531</v>
       </c>
@@ -5386,7 +5422,7 @@
         <v>26550000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>532</v>
       </c>
@@ -5395,7 +5431,7 @@
         <v>26600000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>533</v>
       </c>
@@ -5404,7 +5440,7 @@
         <v>26650000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>534</v>
       </c>
@@ -5413,7 +5449,7 @@
         <v>26700000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>535</v>
       </c>
@@ -5422,7 +5458,7 @@
         <v>26750000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>536</v>
       </c>
@@ -5431,7 +5467,7 @@
         <v>26800000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>537</v>
       </c>
@@ -5440,7 +5476,7 @@
         <v>26850000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>538</v>
       </c>
@@ -5449,7 +5485,7 @@
         <v>26900000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>539</v>
       </c>
@@ -5458,7 +5494,7 @@
         <v>26950000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>540</v>
       </c>
@@ -5467,7 +5503,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>541</v>
       </c>
@@ -5476,7 +5512,7 @@
         <v>27050000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>542</v>
       </c>
@@ -5485,7 +5521,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>543</v>
       </c>
@@ -5494,7 +5530,7 @@
         <v>27150000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>544</v>
       </c>
@@ -5503,7 +5539,7 @@
         <v>27200000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>545</v>
       </c>
@@ -5512,7 +5548,7 @@
         <v>27250000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>546</v>
       </c>
@@ -5521,7 +5557,7 @@
         <v>27300000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>547</v>
       </c>
@@ -5530,7 +5566,7 @@
         <v>27350000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>548</v>
       </c>
@@ -5539,7 +5575,7 @@
         <v>27400000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>549</v>
       </c>
@@ -5548,7 +5584,7 @@
         <v>27450000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>550</v>
       </c>
@@ -5557,7 +5593,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>551</v>
       </c>
@@ -5566,7 +5602,7 @@
         <v>27550000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>552</v>
       </c>
@@ -5575,7 +5611,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>553</v>
       </c>
@@ -5584,7 +5620,7 @@
         <v>27650000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>554</v>
       </c>
@@ -5593,7 +5629,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>555</v>
       </c>
@@ -5602,7 +5638,7 @@
         <v>27750000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>556</v>
       </c>
@@ -5611,7 +5647,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>557</v>
       </c>
@@ -5620,7 +5656,7 @@
         <v>27850000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>558</v>
       </c>
@@ -5629,7 +5665,7 @@
         <v>27900000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>559</v>
       </c>
@@ -5638,7 +5674,7 @@
         <v>27950000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>560</v>
       </c>
@@ -5647,7 +5683,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>561</v>
       </c>
@@ -5656,7 +5692,7 @@
         <v>28050000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>562</v>
       </c>
@@ -5665,7 +5701,7 @@
         <v>28100000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>563</v>
       </c>
@@ -5674,7 +5710,7 @@
         <v>28150000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>564</v>
       </c>
@@ -5683,7 +5719,7 @@
         <v>28200000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>565</v>
       </c>
@@ -5692,7 +5728,7 @@
         <v>28250000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>566</v>
       </c>
@@ -5701,7 +5737,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>567</v>
       </c>
@@ -5710,7 +5746,7 @@
         <v>28350000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>568</v>
       </c>
@@ -5719,7 +5755,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>569</v>
       </c>
@@ -5728,7 +5764,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>570</v>
       </c>
@@ -5737,7 +5773,7 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>571</v>
       </c>
@@ -5746,7 +5782,7 @@
         <v>28550000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>572</v>
       </c>
@@ -5755,7 +5791,7 @@
         <v>28600000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>573</v>
       </c>
@@ -5764,7 +5800,7 @@
         <v>28650000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>574</v>
       </c>
@@ -5773,7 +5809,7 @@
         <v>28700000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>575</v>
       </c>
@@ -5782,7 +5818,7 @@
         <v>28750000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>576</v>
       </c>
@@ -5791,7 +5827,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>577</v>
       </c>
@@ -5800,7 +5836,7 @@
         <v>28850000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>578</v>
       </c>
@@ -5809,7 +5845,7 @@
         <v>28900000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>579</v>
       </c>
@@ -5818,7 +5854,7 @@
         <v>28950000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>580</v>
       </c>
@@ -5827,7 +5863,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>581</v>
       </c>
@@ -5836,7 +5872,7 @@
         <v>29050000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>582</v>
       </c>
@@ -5845,7 +5881,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>583</v>
       </c>
@@ -5854,7 +5890,7 @@
         <v>29150000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>584</v>
       </c>
@@ -5863,7 +5899,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>585</v>
       </c>
@@ -5872,7 +5908,7 @@
         <v>29250000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>586</v>
       </c>
@@ -5881,7 +5917,7 @@
         <v>29300000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>587</v>
       </c>
@@ -5890,7 +5926,7 @@
         <v>29350000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>588</v>
       </c>
@@ -5899,7 +5935,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>589</v>
       </c>
@@ -5908,7 +5944,7 @@
         <v>29450000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>590</v>
       </c>
@@ -5917,7 +5953,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>591</v>
       </c>
@@ -5926,7 +5962,7 @@
         <v>29550000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>592</v>
       </c>
@@ -5935,7 +5971,7 @@
         <v>29600000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>593</v>
       </c>
@@ -5944,7 +5980,7 @@
         <v>29650000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>594</v>
       </c>
@@ -5953,7 +5989,7 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>595</v>
       </c>
@@ -5962,7 +5998,7 @@
         <v>29750000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>596</v>
       </c>
@@ -5971,7 +6007,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>597</v>
       </c>
@@ -5980,7 +6016,7 @@
         <v>29850000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>598</v>
       </c>
@@ -5989,7 +6025,7 @@
         <v>29900000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>599</v>
       </c>
@@ -5998,7 +6034,7 @@
         <v>29950000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>600</v>
       </c>
@@ -6007,7 +6043,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>601</v>
       </c>
@@ -6016,7 +6052,7 @@
         <v>30050000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>602</v>
       </c>
@@ -6025,7 +6061,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>603</v>
       </c>
@@ -6034,7 +6070,7 @@
         <v>30150000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>604</v>
       </c>
@@ -6043,7 +6079,7 @@
         <v>30200000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>605</v>
       </c>
@@ -6052,7 +6088,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>606</v>
       </c>
@@ -6061,7 +6097,7 @@
         <v>30300000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>607</v>
       </c>
@@ -6070,7 +6106,7 @@
         <v>30350000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>608</v>
       </c>
@@ -6079,7 +6115,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>609</v>
       </c>
@@ -6088,7 +6124,7 @@
         <v>30450000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>610</v>
       </c>
@@ -6097,7 +6133,7 @@
         <v>30500000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>611</v>
       </c>
@@ -6106,7 +6142,7 @@
         <v>30550000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>612</v>
       </c>
@@ -6115,7 +6151,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>613</v>
       </c>
@@ -6124,7 +6160,7 @@
         <v>30650000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>614</v>
       </c>
@@ -6133,7 +6169,7 @@
         <v>30700000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>615</v>
       </c>
@@ -6142,7 +6178,7 @@
         <v>30750000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>616</v>
       </c>
@@ -6151,7 +6187,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>617</v>
       </c>
@@ -6160,7 +6196,7 @@
         <v>30850000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>618</v>
       </c>
@@ -6169,7 +6205,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>619</v>
       </c>
@@ -6178,7 +6214,7 @@
         <v>30950000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>620</v>
       </c>
@@ -6187,7 +6223,7 @@
         <v>31000000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>621</v>
       </c>
@@ -6196,7 +6232,7 @@
         <v>31050000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>622</v>
       </c>
@@ -6205,7 +6241,7 @@
         <v>31100000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>623</v>
       </c>
@@ -6214,7 +6250,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>624</v>
       </c>
@@ -6223,7 +6259,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>625</v>
       </c>
@@ -6232,7 +6268,7 @@
         <v>31250000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>626</v>
       </c>
@@ -6241,7 +6277,7 @@
         <v>31300000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>627</v>
       </c>
@@ -6250,7 +6286,7 @@
         <v>31350000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>628</v>
       </c>
@@ -6259,7 +6295,7 @@
         <v>31400000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>629</v>
       </c>
@@ -6268,7 +6304,7 @@
         <v>31450000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>630</v>
       </c>
@@ -6277,7 +6313,7 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>631</v>
       </c>
@@ -6286,7 +6322,7 @@
         <v>31550000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>632</v>
       </c>
@@ -6295,7 +6331,7 @@
         <v>31600000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>633</v>
       </c>
@@ -6304,7 +6340,7 @@
         <v>31650000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>634</v>
       </c>
@@ -6313,7 +6349,7 @@
         <v>31700000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>635</v>
       </c>
@@ -6322,7 +6358,7 @@
         <v>31750000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>636</v>
       </c>
@@ -6331,7 +6367,7 @@
         <v>31800000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>637</v>
       </c>
@@ -6340,7 +6376,7 @@
         <v>31850000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>638</v>
       </c>
@@ -6349,7 +6385,7 @@
         <v>31900000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>639</v>
       </c>
@@ -6358,7 +6394,7 @@
         <v>31950000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>640</v>
       </c>
@@ -6367,7 +6403,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>641</v>
       </c>
@@ -6376,7 +6412,7 @@
         <v>32050000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>642</v>
       </c>
@@ -6385,7 +6421,7 @@
         <v>32100000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>643</v>
       </c>
@@ -6394,7 +6430,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>644</v>
       </c>
@@ -6403,7 +6439,7 @@
         <v>32200000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>645</v>
       </c>
@@ -6412,7 +6448,7 @@
         <v>32250000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>646</v>
       </c>
@@ -6421,7 +6457,7 @@
         <v>32300000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>647</v>
       </c>
@@ -6430,7 +6466,7 @@
         <v>32350000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>648</v>
       </c>
@@ -6439,7 +6475,7 @@
         <v>32400000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>649</v>
       </c>
@@ -6448,7 +6484,7 @@
         <v>32450000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>650</v>
       </c>
@@ -6457,7 +6493,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>651</v>
       </c>
@@ -6466,7 +6502,7 @@
         <v>32550000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>652</v>
       </c>
@@ -6475,7 +6511,7 @@
         <v>32600000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>653</v>
       </c>
@@ -6484,7 +6520,7 @@
         <v>32650000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>654</v>
       </c>
@@ -6493,7 +6529,7 @@
         <v>32700000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>655</v>
       </c>
@@ -6502,7 +6538,7 @@
         <v>32750000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>656</v>
       </c>
@@ -6511,7 +6547,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>657</v>
       </c>
@@ -6520,7 +6556,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>658</v>
       </c>
@@ -6529,7 +6565,7 @@
         <v>32900000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>659</v>
       </c>
@@ -6538,7 +6574,7 @@
         <v>32950000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>660</v>
       </c>
@@ -6547,7 +6583,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>661</v>
       </c>
@@ -6556,7 +6592,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>662</v>
       </c>
@@ -6565,7 +6601,7 @@
         <v>33100000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>663</v>
       </c>
@@ -6574,7 +6610,7 @@
         <v>33150000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>664</v>
       </c>
@@ -6583,7 +6619,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>665</v>
       </c>
@@ -6592,7 +6628,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>666</v>
       </c>
@@ -6601,7 +6637,7 @@
         <v>33300000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>667</v>
       </c>
@@ -6610,7 +6646,7 @@
         <v>33350000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>668</v>
       </c>
@@ -6619,7 +6655,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>669</v>
       </c>
@@ -6628,7 +6664,7 @@
         <v>33450000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>670</v>
       </c>
@@ -6637,7 +6673,7 @@
         <v>33500000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>671</v>
       </c>
@@ -6646,7 +6682,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>672</v>
       </c>
@@ -6655,7 +6691,7 @@
         <v>33600000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>673</v>
       </c>
@@ -6664,7 +6700,7 @@
         <v>33650000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>674</v>
       </c>
@@ -6673,7 +6709,7 @@
         <v>33700000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>675</v>
       </c>
@@ -6682,7 +6718,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>676</v>
       </c>
@@ -6691,7 +6727,7 @@
         <v>33800000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>677</v>
       </c>
@@ -6700,7 +6736,7 @@
         <v>33850000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>678</v>
       </c>
@@ -6709,7 +6745,7 @@
         <v>33900000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>679</v>
       </c>
@@ -6718,7 +6754,7 @@
         <v>33950000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>680</v>
       </c>
@@ -6727,7 +6763,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>681</v>
       </c>
@@ -6736,7 +6772,7 @@
         <v>34050000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>682</v>
       </c>
@@ -6745,7 +6781,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>683</v>
       </c>
@@ -6754,7 +6790,7 @@
         <v>34150000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>684</v>
       </c>
@@ -6763,7 +6799,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>685</v>
       </c>
@@ -6772,7 +6808,7 @@
         <v>34250000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>686</v>
       </c>
@@ -6781,7 +6817,7 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>687</v>
       </c>
@@ -6790,7 +6826,7 @@
         <v>34350000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>688</v>
       </c>
@@ -6799,7 +6835,7 @@
         <v>34400000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>689</v>
       </c>
@@ -6808,7 +6844,7 @@
         <v>34450000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>690</v>
       </c>
@@ -6817,7 +6853,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>691</v>
       </c>
@@ -6826,7 +6862,7 @@
         <v>34550000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>692</v>
       </c>
@@ -6835,7 +6871,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>693</v>
       </c>
@@ -6844,7 +6880,7 @@
         <v>34650000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>694</v>
       </c>
@@ -6853,7 +6889,7 @@
         <v>34700000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>695</v>
       </c>
@@ -6862,7 +6898,7 @@
         <v>34750000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>696</v>
       </c>
@@ -6871,7 +6907,7 @@
         <v>34800000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>697</v>
       </c>
@@ -6880,7 +6916,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>698</v>
       </c>
@@ -6889,7 +6925,7 @@
         <v>34900000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>699</v>
       </c>
@@ -6898,7 +6934,7 @@
         <v>34950000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>700</v>
       </c>
@@ -6907,7 +6943,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>701</v>
       </c>
@@ -6916,7 +6952,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>702</v>
       </c>
@@ -6925,7 +6961,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>703</v>
       </c>
@@ -6934,7 +6970,7 @@
         <v>35150000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>704</v>
       </c>
@@ -6943,7 +6979,7 @@
         <v>35200000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>705</v>
       </c>
@@ -6952,7 +6988,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>706</v>
       </c>
@@ -6961,7 +6997,7 @@
         <v>35300000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>707</v>
       </c>
@@ -6970,7 +7006,7 @@
         <v>35350000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>708</v>
       </c>
@@ -6979,7 +7015,7 @@
         <v>35400000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>709</v>
       </c>
@@ -6988,7 +7024,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>710</v>
       </c>
@@ -6997,7 +7033,7 @@
         <v>35500000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>711</v>
       </c>
@@ -7006,7 +7042,7 @@
         <v>35550000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>712</v>
       </c>
@@ -7015,7 +7051,7 @@
         <v>35600000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>713</v>
       </c>
@@ -7024,7 +7060,7 @@
         <v>35650000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>714</v>
       </c>
@@ -7033,7 +7069,7 @@
         <v>35700000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>715</v>
       </c>
@@ -7042,7 +7078,7 @@
         <v>35750000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>716</v>
       </c>
@@ -7051,7 +7087,7 @@
         <v>35800000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>717</v>
       </c>
@@ -7060,7 +7096,7 @@
         <v>35850000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>718</v>
       </c>
@@ -7069,7 +7105,7 @@
         <v>35900000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>719</v>
       </c>
@@ -7078,7 +7114,7 @@
         <v>35950000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>720</v>
       </c>
@@ -7087,7 +7123,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>721</v>
       </c>
@@ -7096,7 +7132,7 @@
         <v>36050000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>722</v>
       </c>
@@ -7105,7 +7141,7 @@
         <v>36100000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>723</v>
       </c>
@@ -7114,7 +7150,7 @@
         <v>36150000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>724</v>
       </c>
@@ -7123,7 +7159,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>725</v>
       </c>
@@ -7132,7 +7168,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>726</v>
       </c>
@@ -7141,7 +7177,7 @@
         <v>36300000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>727</v>
       </c>
@@ -7150,7 +7186,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>728</v>
       </c>
@@ -7159,7 +7195,7 @@
         <v>36400000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>729</v>
       </c>
@@ -7168,7 +7204,7 @@
         <v>36450000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>730</v>
       </c>
@@ -7177,7 +7213,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>731</v>
       </c>
@@ -7186,7 +7222,7 @@
         <v>36550000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>732</v>
       </c>
@@ -7195,7 +7231,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>733</v>
       </c>
@@ -7204,7 +7240,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>734</v>
       </c>
@@ -7213,7 +7249,7 @@
         <v>36700000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>735</v>
       </c>
@@ -7222,7 +7258,7 @@
         <v>36750000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>736</v>
       </c>
@@ -7231,7 +7267,7 @@
         <v>36800000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>737</v>
       </c>
@@ -7240,7 +7276,7 @@
         <v>36850000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>738</v>
       </c>
@@ -7249,7 +7285,7 @@
         <v>36900000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>739</v>
       </c>
@@ -7258,7 +7294,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>740</v>
       </c>
@@ -7267,7 +7303,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>741</v>
       </c>
@@ -7276,7 +7312,7 @@
         <v>37050000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>742</v>
       </c>
@@ -7285,7 +7321,7 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>743</v>
       </c>
@@ -7294,7 +7330,7 @@
         <v>37150000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>744</v>
       </c>
@@ -7303,7 +7339,7 @@
         <v>37200000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>745</v>
       </c>
@@ -7312,7 +7348,7 @@
         <v>37250000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>746</v>
       </c>
@@ -7321,7 +7357,7 @@
         <v>37300000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>747</v>
       </c>
@@ -7330,7 +7366,7 @@
         <v>37350000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>748</v>
       </c>
@@ -7339,7 +7375,7 @@
         <v>37400000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>749</v>
       </c>
@@ -7348,7 +7384,7 @@
         <v>37450000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>750</v>
       </c>
@@ -7357,7 +7393,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>751</v>
       </c>
@@ -7366,7 +7402,7 @@
         <v>37550000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>752</v>
       </c>
@@ -7375,7 +7411,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>753</v>
       </c>
@@ -7384,7 +7420,7 @@
         <v>37650000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>754</v>
       </c>
@@ -7393,7 +7429,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>755</v>
       </c>
@@ -7402,7 +7438,7 @@
         <v>37750000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>756</v>
       </c>
@@ -7411,7 +7447,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>757</v>
       </c>
@@ -7420,7 +7456,7 @@
         <v>37850000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>758</v>
       </c>
@@ -7429,7 +7465,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>759</v>
       </c>
@@ -7438,7 +7474,7 @@
         <v>37950000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>760</v>
       </c>
@@ -7447,7 +7483,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>761</v>
       </c>
@@ -7456,7 +7492,7 @@
         <v>38050000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>762</v>
       </c>
@@ -7465,7 +7501,7 @@
         <v>38100000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>763</v>
       </c>
@@ -7474,7 +7510,7 @@
         <v>38150000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>764</v>
       </c>
@@ -7483,7 +7519,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>765</v>
       </c>
@@ -7492,7 +7528,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>766</v>
       </c>
@@ -7501,7 +7537,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>767</v>
       </c>
@@ -7510,7 +7546,7 @@
         <v>38350000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>768</v>
       </c>
@@ -7519,7 +7555,7 @@
         <v>38400000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>769</v>
       </c>
@@ -7528,7 +7564,7 @@
         <v>38450000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>770</v>
       </c>
@@ -7537,7 +7573,7 @@
         <v>38500000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>771</v>
       </c>
@@ -7546,7 +7582,7 @@
         <v>38550000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>772</v>
       </c>
@@ -7555,7 +7591,7 @@
         <v>38600000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>773</v>
       </c>
@@ -7564,7 +7600,7 @@
         <v>38650000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>774</v>
       </c>
@@ -7573,7 +7609,7 @@
         <v>38700000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>775</v>
       </c>
@@ -7582,7 +7618,7 @@
         <v>38750000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>776</v>
       </c>
@@ -7591,7 +7627,7 @@
         <v>38800000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>777</v>
       </c>
@@ -7600,7 +7636,7 @@
         <v>38850000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>778</v>
       </c>
@@ -7609,7 +7645,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>779</v>
       </c>
@@ -7618,7 +7654,7 @@
         <v>38950000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>780</v>
       </c>
@@ -7627,7 +7663,7 @@
         <v>39000000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>781</v>
       </c>
@@ -7636,7 +7672,7 @@
         <v>39050000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>782</v>
       </c>
@@ -7645,7 +7681,7 @@
         <v>39100000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>783</v>
       </c>
@@ -7654,7 +7690,7 @@
         <v>39150000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>784</v>
       </c>
@@ -7663,7 +7699,7 @@
         <v>39200000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>785</v>
       </c>
@@ -7672,7 +7708,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>786</v>
       </c>
@@ -7681,7 +7717,7 @@
         <v>39300000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>787</v>
       </c>
@@ -7690,7 +7726,7 @@
         <v>39350000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>788</v>
       </c>
@@ -7699,7 +7735,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>789</v>
       </c>
@@ -7708,7 +7744,7 @@
         <v>39450000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>790</v>
       </c>
@@ -7717,7 +7753,7 @@
         <v>39500000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>791</v>
       </c>
@@ -7726,7 +7762,7 @@
         <v>39550000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>792</v>
       </c>
@@ -7735,7 +7771,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>793</v>
       </c>
@@ -7744,7 +7780,7 @@
         <v>39650000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>794</v>
       </c>
@@ -7753,7 +7789,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>795</v>
       </c>
@@ -7762,7 +7798,7 @@
         <v>39750000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>796</v>
       </c>
@@ -7771,7 +7807,7 @@
         <v>39800000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>797</v>
       </c>
@@ -7780,7 +7816,7 @@
         <v>39850000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>798</v>
       </c>
@@ -7789,7 +7825,7 @@
         <v>39900000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>799</v>
       </c>
@@ -7798,7 +7834,7 @@
         <v>39950000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>800</v>
       </c>
@@ -7807,7 +7843,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>801</v>
       </c>
@@ -7816,7 +7852,7 @@
         <v>40050000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>802</v>
       </c>
@@ -7825,7 +7861,7 @@
         <v>40100000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>803</v>
       </c>
@@ -7834,7 +7870,7 @@
         <v>40150000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>804</v>
       </c>
@@ -7843,7 +7879,7 @@
         <v>40200000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>805</v>
       </c>
@@ -7852,7 +7888,7 @@
         <v>40250000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>806</v>
       </c>
@@ -7861,7 +7897,7 @@
         <v>40300000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>807</v>
       </c>
@@ -7870,7 +7906,7 @@
         <v>40350000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>808</v>
       </c>
@@ -7879,7 +7915,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>809</v>
       </c>
@@ -7888,7 +7924,7 @@
         <v>40450000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>810</v>
       </c>
@@ -7897,7 +7933,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>811</v>
       </c>
@@ -7906,7 +7942,7 @@
         <v>40550000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>812</v>
       </c>
@@ -7915,7 +7951,7 @@
         <v>40600000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>813</v>
       </c>
@@ -7924,7 +7960,7 @@
         <v>40650000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>814</v>
       </c>
@@ -7933,7 +7969,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>815</v>
       </c>
@@ -7942,7 +7978,7 @@
         <v>40750000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>816</v>
       </c>
@@ -7951,7 +7987,7 @@
         <v>40800000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>817</v>
       </c>
@@ -7960,7 +7996,7 @@
         <v>40850000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>818</v>
       </c>
@@ -7969,7 +8005,7 @@
         <v>40900000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>819</v>
       </c>
@@ -7978,7 +8014,7 @@
         <v>40950000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>820</v>
       </c>
@@ -7987,7 +8023,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>821</v>
       </c>
@@ -7996,7 +8032,7 @@
         <v>41050000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>822</v>
       </c>
@@ -8005,7 +8041,7 @@
         <v>41100000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>823</v>
       </c>
@@ -8014,7 +8050,7 @@
         <v>41150000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>824</v>
       </c>
@@ -8023,7 +8059,7 @@
         <v>41200000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>825</v>
       </c>
@@ -8032,7 +8068,7 @@
         <v>41250000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>826</v>
       </c>
@@ -8041,7 +8077,7 @@
         <v>41300000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>827</v>
       </c>
@@ -8050,7 +8086,7 @@
         <v>41350000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>828</v>
       </c>
@@ -8059,7 +8095,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>829</v>
       </c>
@@ -8068,7 +8104,7 @@
         <v>41450000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>830</v>
       </c>
@@ -8077,7 +8113,7 @@
         <v>41500000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>831</v>
       </c>
@@ -8086,7 +8122,7 @@
         <v>41550000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>832</v>
       </c>
@@ -8095,7 +8131,7 @@
         <v>41600000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>833</v>
       </c>
@@ -8104,7 +8140,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>834</v>
       </c>
@@ -8113,7 +8149,7 @@
         <v>41700000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>835</v>
       </c>
@@ -8122,7 +8158,7 @@
         <v>41750000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>836</v>
       </c>
@@ -8131,7 +8167,7 @@
         <v>41800000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>837</v>
       </c>
@@ -8140,7 +8176,7 @@
         <v>41850000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>838</v>
       </c>
@@ -8149,7 +8185,7 @@
         <v>41900000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>839</v>
       </c>
@@ -8158,7 +8194,7 @@
         <v>41950000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>840</v>
       </c>
@@ -8167,7 +8203,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>841</v>
       </c>
@@ -8176,7 +8212,7 @@
         <v>42050000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>842</v>
       </c>
@@ -8185,7 +8221,7 @@
         <v>42100000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>843</v>
       </c>
@@ -8194,7 +8230,7 @@
         <v>42150000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>844</v>
       </c>
@@ -8203,7 +8239,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>845</v>
       </c>
@@ -8212,7 +8248,7 @@
         <v>42250000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>846</v>
       </c>
@@ -8221,7 +8257,7 @@
         <v>42300000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>847</v>
       </c>
@@ -8230,7 +8266,7 @@
         <v>42350000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>848</v>
       </c>
@@ -8239,7 +8275,7 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>849</v>
       </c>
@@ -8248,7 +8284,7 @@
         <v>42450000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>850</v>
       </c>
@@ -8257,7 +8293,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>851</v>
       </c>
@@ -8266,7 +8302,7 @@
         <v>42550000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>852</v>
       </c>
@@ -8275,7 +8311,7 @@
         <v>42600000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>853</v>
       </c>
@@ -8284,7 +8320,7 @@
         <v>42650000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>854</v>
       </c>
@@ -8293,7 +8329,7 @@
         <v>42700000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>855</v>
       </c>
@@ -8302,7 +8338,7 @@
         <v>42750000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>856</v>
       </c>
@@ -8311,7 +8347,7 @@
         <v>42800000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>857</v>
       </c>
@@ -8320,7 +8356,7 @@
         <v>42850000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>858</v>
       </c>
@@ -8329,7 +8365,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>859</v>
       </c>
@@ -8338,7 +8374,7 @@
         <v>42950000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>860</v>
       </c>
@@ -8347,7 +8383,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>861</v>
       </c>
@@ -8356,7 +8392,7 @@
         <v>43050000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>862</v>
       </c>
@@ -8365,7 +8401,7 @@
         <v>43100000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>863</v>
       </c>
@@ -8374,7 +8410,7 @@
         <v>43150000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>864</v>
       </c>
@@ -8383,7 +8419,7 @@
         <v>43200000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>865</v>
       </c>
@@ -8392,7 +8428,7 @@
         <v>43250000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>866</v>
       </c>
@@ -8401,7 +8437,7 @@
         <v>43300000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>867</v>
       </c>
@@ -8410,7 +8446,7 @@
         <v>43350000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>868</v>
       </c>
@@ -8419,7 +8455,7 @@
         <v>43400000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>869</v>
       </c>
@@ -8428,7 +8464,7 @@
         <v>43450000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>870</v>
       </c>
@@ -8437,7 +8473,7 @@
         <v>43500000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>871</v>
       </c>
@@ -8446,7 +8482,7 @@
         <v>43550000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>872</v>
       </c>
@@ -8455,7 +8491,7 @@
         <v>43600000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>873</v>
       </c>
@@ -8464,7 +8500,7 @@
         <v>43650000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>874</v>
       </c>
@@ -8473,7 +8509,7 @@
         <v>43700000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>875</v>
       </c>
@@ -8482,7 +8518,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>876</v>
       </c>
@@ -8491,7 +8527,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>877</v>
       </c>
@@ -8500,7 +8536,7 @@
         <v>43850000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>878</v>
       </c>
@@ -8509,7 +8545,7 @@
         <v>43900000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>879</v>
       </c>
@@ -8518,7 +8554,7 @@
         <v>43950000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>880</v>
       </c>
@@ -8527,7 +8563,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>881</v>
       </c>
@@ -8536,7 +8572,7 @@
         <v>44050000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>882</v>
       </c>
@@ -8545,7 +8581,7 @@
         <v>44100000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>883</v>
       </c>
@@ -8554,7 +8590,7 @@
         <v>44150000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>884</v>
       </c>
@@ -8563,7 +8599,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>885</v>
       </c>
@@ -8572,7 +8608,7 @@
         <v>44250000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>886</v>
       </c>
@@ -8581,7 +8617,7 @@
         <v>44300000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>887</v>
       </c>
@@ -8590,7 +8626,7 @@
         <v>44350000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>888</v>
       </c>
@@ -8599,7 +8635,7 @@
         <v>44400000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>889</v>
       </c>
@@ -8608,7 +8644,7 @@
         <v>44450000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>890</v>
       </c>
@@ -8617,7 +8653,7 @@
         <v>44500000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>891</v>
       </c>
@@ -8626,7 +8662,7 @@
         <v>44550000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>892</v>
       </c>
@@ -8635,7 +8671,7 @@
         <v>44600000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>893</v>
       </c>
@@ -8644,7 +8680,7 @@
         <v>44650000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>894</v>
       </c>
@@ -8653,7 +8689,7 @@
         <v>44700000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>895</v>
       </c>
@@ -8662,7 +8698,7 @@
         <v>44750000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>896</v>
       </c>
@@ -8671,7 +8707,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>897</v>
       </c>
@@ -8680,7 +8716,7 @@
         <v>44850000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>898</v>
       </c>
@@ -8689,7 +8725,7 @@
         <v>44900000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>899</v>
       </c>
@@ -8698,7 +8734,7 @@
         <v>44950000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>900</v>
       </c>
@@ -8707,7 +8743,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>901</v>
       </c>
@@ -8716,7 +8752,7 @@
         <v>45050000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>902</v>
       </c>
@@ -8725,7 +8761,7 @@
         <v>45100000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>903</v>
       </c>
@@ -8734,7 +8770,7 @@
         <v>45150000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>904</v>
       </c>
@@ -8743,7 +8779,7 @@
         <v>45200000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>905</v>
       </c>
@@ -8752,7 +8788,7 @@
         <v>45250000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>906</v>
       </c>
@@ -8761,7 +8797,7 @@
         <v>45300000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>907</v>
       </c>
@@ -8770,7 +8806,7 @@
         <v>45350000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>908</v>
       </c>
@@ -8779,7 +8815,7 @@
         <v>45400000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>909</v>
       </c>
@@ -8788,7 +8824,7 @@
         <v>45450000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>910</v>
       </c>
@@ -8797,7 +8833,7 @@
         <v>45500000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>911</v>
       </c>
@@ -8806,7 +8842,7 @@
         <v>45550000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>912</v>
       </c>
@@ -8815,7 +8851,7 @@
         <v>45600000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>913</v>
       </c>
@@ -8824,7 +8860,7 @@
         <v>45650000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>914</v>
       </c>
@@ -8833,7 +8869,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>915</v>
       </c>
@@ -8842,7 +8878,7 @@
         <v>45750000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>916</v>
       </c>
@@ -8851,7 +8887,7 @@
         <v>45800000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>917</v>
       </c>
@@ -8860,7 +8896,7 @@
         <v>45850000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>918</v>
       </c>
@@ -8869,7 +8905,7 @@
         <v>45900000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>919</v>
       </c>
@@ -8878,7 +8914,7 @@
         <v>45950000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>920</v>
       </c>
@@ -8887,7 +8923,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>921</v>
       </c>
@@ -8896,7 +8932,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>922</v>
       </c>
@@ -8905,7 +8941,7 @@
         <v>46100000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>923</v>
       </c>
@@ -8914,7 +8950,7 @@
         <v>46150000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>924</v>
       </c>
@@ -8923,7 +8959,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>925</v>
       </c>
@@ -8932,7 +8968,7 @@
         <v>46250000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>926</v>
       </c>
@@ -8941,7 +8977,7 @@
         <v>46300000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>927</v>
       </c>
@@ -8950,7 +8986,7 @@
         <v>46350000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>928</v>
       </c>
@@ -8959,7 +8995,7 @@
         <v>46400000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>929</v>
       </c>
@@ -8968,7 +9004,7 @@
         <v>46450000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>930</v>
       </c>
@@ -8977,7 +9013,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>931</v>
       </c>
@@ -8986,7 +9022,7 @@
         <v>46550000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>932</v>
       </c>
@@ -8995,7 +9031,7 @@
         <v>46600000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>933</v>
       </c>
@@ -9004,7 +9040,7 @@
         <v>46650000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>934</v>
       </c>
@@ -9013,7 +9049,7 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>935</v>
       </c>
@@ -9022,7 +9058,7 @@
         <v>46750000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>936</v>
       </c>
@@ -9031,7 +9067,7 @@
         <v>46800000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>937</v>
       </c>
@@ -9040,7 +9076,7 @@
         <v>46850000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>938</v>
       </c>
@@ -9049,7 +9085,7 @@
         <v>46900000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>939</v>
       </c>
@@ -9058,7 +9094,7 @@
         <v>46950000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>940</v>
       </c>
@@ -9067,7 +9103,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>941</v>
       </c>
@@ -9076,7 +9112,7 @@
         <v>47050000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>942</v>
       </c>
@@ -9085,7 +9121,7 @@
         <v>47100000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>943</v>
       </c>
@@ -9094,7 +9130,7 @@
         <v>47150000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>944</v>
       </c>
@@ -9103,7 +9139,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>945</v>
       </c>
@@ -9112,7 +9148,7 @@
         <v>47250000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>946</v>
       </c>
@@ -9121,7 +9157,7 @@
         <v>47300000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>947</v>
       </c>
@@ -9130,7 +9166,7 @@
         <v>47350000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>948</v>
       </c>
@@ -9139,7 +9175,7 @@
         <v>47400000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>949</v>
       </c>
@@ -9148,7 +9184,7 @@
         <v>47450000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>950</v>
       </c>
@@ -9157,7 +9193,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>951</v>
       </c>
@@ -9166,7 +9202,7 @@
         <v>47550000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>952</v>
       </c>
@@ -9175,7 +9211,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>953</v>
       </c>
@@ -9184,7 +9220,7 @@
         <v>47650000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>954</v>
       </c>
@@ -9193,7 +9229,7 @@
         <v>47700000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>955</v>
       </c>
@@ -9202,7 +9238,7 @@
         <v>47750000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>956</v>
       </c>
@@ -9211,7 +9247,7 @@
         <v>47800000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>957</v>
       </c>
@@ -9220,7 +9256,7 @@
         <v>47850000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>958</v>
       </c>
@@ -9229,7 +9265,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>959</v>
       </c>
@@ -9238,7 +9274,7 @@
         <v>47950000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>960</v>
       </c>
@@ -9247,7 +9283,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>961</v>
       </c>
@@ -9256,7 +9292,7 @@
         <v>48050000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>962</v>
       </c>
@@ -9265,7 +9301,7 @@
         <v>48100000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>963</v>
       </c>
@@ -9274,7 +9310,7 @@
         <v>48150000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>964</v>
       </c>
@@ -9283,7 +9319,7 @@
         <v>48200000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>965</v>
       </c>
@@ -9292,7 +9328,7 @@
         <v>48250000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>966</v>
       </c>
@@ -9301,7 +9337,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>967</v>
       </c>
@@ -9310,7 +9346,7 @@
         <v>48350000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>968</v>
       </c>
@@ -9319,7 +9355,7 @@
         <v>48400000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>969</v>
       </c>
@@ -9328,7 +9364,7 @@
         <v>48450000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>970</v>
       </c>
@@ -9337,7 +9373,7 @@
         <v>48500000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>971</v>
       </c>
@@ -9346,7 +9382,7 @@
         <v>48550000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>972</v>
       </c>
@@ -9355,7 +9391,7 @@
         <v>48600000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>973</v>
       </c>
@@ -9364,7 +9400,7 @@
         <v>48650000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>974</v>
       </c>
@@ -9373,7 +9409,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>975</v>
       </c>
@@ -9382,7 +9418,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>976</v>
       </c>
@@ -9391,7 +9427,7 @@
         <v>48800000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>977</v>
       </c>
@@ -9400,7 +9436,7 @@
         <v>48850000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>978</v>
       </c>
@@ -9409,7 +9445,7 @@
         <v>48900000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>979</v>
       </c>
@@ -9418,7 +9454,7 @@
         <v>48950000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>980</v>
       </c>
@@ -9427,7 +9463,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>981</v>
       </c>
@@ -9436,7 +9472,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>982</v>
       </c>
@@ -9445,7 +9481,7 @@
         <v>49100000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>983</v>
       </c>
@@ -9454,7 +9490,7 @@
         <v>49150000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>984</v>
       </c>
@@ -9463,7 +9499,7 @@
         <v>49200000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>985</v>
       </c>
@@ -9472,7 +9508,7 @@
         <v>49250000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>986</v>
       </c>
@@ -9481,7 +9517,7 @@
         <v>49300000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>987</v>
       </c>
@@ -9490,7 +9526,7 @@
         <v>49350000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>988</v>
       </c>
@@ -9499,7 +9535,7 @@
         <v>49400000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>989</v>
       </c>
@@ -9508,7 +9544,7 @@
         <v>49450000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>990</v>
       </c>
@@ -9517,7 +9553,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>991</v>
       </c>
@@ -9526,7 +9562,7 @@
         <v>49550000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>992</v>
       </c>
@@ -9535,7 +9571,7 @@
         <v>49600000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>993</v>
       </c>
@@ -9544,7 +9580,7 @@
         <v>49650000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>994</v>
       </c>
@@ -9553,7 +9589,7 @@
         <v>49700000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>995</v>
       </c>
@@ -9562,7 +9598,7 @@
         <v>49750000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>996</v>
       </c>
@@ -9571,7 +9607,7 @@
         <v>49800000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>997</v>
       </c>
@@ -9580,7 +9616,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>998</v>
       </c>
@@ -9589,7 +9625,7 @@
         <v>49900000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>999</v>
       </c>
@@ -9598,7 +9634,7 @@
         <v>49950000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>1000</v>
       </c>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FA4D34-6EDA-4F69-8E23-BAB6E5C4482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B98187-AB37-4EF1-A263-F54327C0B81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="3420" windowWidth="27555" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,26 @@
   </si>
   <si>
     <t>방어도무시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장 베기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +497,7 @@
     <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +525,11 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -534,8 +557,11 @@
       <c r="I2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -560,8 +586,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -589,8 +618,11 @@
       <c r="I4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -617,6 +649,9 @@
       </c>
       <c r="I5">
         <v>1000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B98187-AB37-4EF1-A263-F54327C0B81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F4702-69B3-49F9-89E7-D08B6F9A1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,17 @@
   </si>
   <si>
     <t>심장 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul4</t>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -652,6 +663,38 @@
       </c>
       <c r="J5" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48F4702-69B3-49F9-89E7-D08B6F9A1DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09282F14-73D5-4DB4-96C6-2B56E7FA9A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="2925" windowWidth="38400" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="I6">
         <v>100</v>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09282F14-73D5-4DB4-96C6-2B56E7FA9A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FCFB10-5C50-49E8-BD2B-AAEAE69ADDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2925" windowWidth="38400" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7485" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,25 @@
   </si>
   <si>
     <t>시간 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul5</t>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abilAddValue2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,9 +525,11 @@
     <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="26.625" customWidth="1"/>
     <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +560,17 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -571,8 +601,17 @@
       <c r="J2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -600,8 +639,17 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -632,8 +680,17 @@
       <c r="J4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -664,8 +721,17 @@
       <c r="J5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -695,6 +761,56 @@
       </c>
       <c r="J6" t="s">
         <v>23</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FCFB10-5C50-49E8-BD2B-AAEAE69ADDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFC5E6-9068-4273-A0C7-25DB28B1C3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <t>yomul5</t>
   </si>
   <si>
-    <t>??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>abilType2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +142,14 @@
   </si>
   <si>
     <t>abilAddValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천공 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 확률로 30% 피해를 더입힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +517,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,13 +565,13 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -786,22 +790,22 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>0</v>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFC5E6-9068-4273-A0C7-25DB28B1C3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9506ED7A-F2B6-4F5A-9BF4-7AD5BD87C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -802,7 +802,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9506ED7A-F2B6-4F5A-9BF4-7AD5BD87C436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B365B02-4D89-4CB5-8EBE-E12F33A4BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3195" yWindow="2685" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>350</v>
       </c>
       <c r="I4">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B365B02-4D89-4CB5-8EBE-E12F33A4BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD86F39-6B2C-4FC3-89C5-E9AA52FEB2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2685" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>350</v>
       </c>
       <c r="I4">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD86F39-6B2C-4FC3-89C5-E9AA52FEB2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF11030-91A2-4D16-A6FB-CC8F7B304CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5400" yWindow="4590" windowWidth="27480" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,17 @@
   </si>
   <si>
     <t>일정 확률로 30% 피해를 더입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul6</t>
+  </si>
+  <si>
+    <t>미등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 베기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,6 +826,47 @@
       </c>
       <c r="M7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2E-3</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF11030-91A2-4D16-A6FB-CC8F7B304CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5958059-97EA-468F-9EE7-BB3760AD5E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4590" windowWidth="27480" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,13 @@
   </si>
   <si>
     <t>약점 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yomul7</t>
+  </si>
+  <si>
+    <t>하늘 베기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,6 +873,47 @@
         <v>0</v>
       </c>
       <c r="M8">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2E-3</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>1E-4</v>
       </c>
     </row>

--- a/Assets/06.Table/YomulAbil.xlsx
+++ b/Assets/06.Table/YomulAbil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5958059-97EA-468F-9EE7-BB3760AD5E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934FDEDC-0489-4120-8152-FBBA4A4FD418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I9">
         <v>1000</v>
@@ -908,13 +908,13 @@
         <v>34</v>
       </c>
       <c r="K9">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
